--- a/inputs/input_data_Feb2016.xlsx
+++ b/inputs/input_data_Feb2016.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="320">
   <si>
     <t>ABRA</t>
   </si>
@@ -1152,6 +1152,9 @@
   <si>
     <t>http://www.bsp.gov.ph/downloads/EcoNews/EN12-06.pdf</t>
   </si>
+  <si>
+    <t>province</t>
+  </si>
 </sst>
 </file>
 
@@ -1160,10 +1163,10 @@
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="###0;###0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="###0;###0"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1522,15 +1525,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1564,16 +1567,16 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1662,21 +1665,21 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="4" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1697,7 +1700,7 @@
     <xf numFmtId="3" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="5" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="15" fillId="5" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1706,7 +1709,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="5" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="15" fillId="5" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1730,7 +1733,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1748,13 +1751,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,16 +1766,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1807,7 +1810,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,6 +1831,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1837,23 +1841,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1861,7 +1853,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2824,7 +2827,7 @@
       <c r="E16" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="111" t="s">
         <v>262</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -2867,7 +2870,7 @@
         <v>130</v>
       </c>
       <c r="E17" s="34"/>
-      <c r="F17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="20" t="s">
         <v>259</v>
       </c>
@@ -2910,7 +2913,7 @@
       <c r="E18" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="110"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="20" t="s">
         <v>259</v>
       </c>
@@ -2953,7 +2956,7 @@
       <c r="E19" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="110"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="20" t="s">
         <v>259</v>
       </c>
@@ -2996,7 +2999,7 @@
       <c r="E20" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="20" t="s">
         <v>259</v>
       </c>
@@ -3039,7 +3042,7 @@
       <c r="E21" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="110"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="20" t="s">
         <v>259</v>
       </c>
@@ -3082,7 +3085,7 @@
       <c r="E22" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="110"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="20" t="s">
         <v>259</v>
       </c>
@@ -3129,7 +3132,7 @@
       <c r="E23" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="110"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="20" t="s">
         <v>259</v>
       </c>
@@ -3965,7 +3968,7 @@
       <c r="A45" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="112" t="s">
         <v>229</v>
       </c>
       <c r="C45" s="79" t="s">
@@ -4008,7 +4011,7 @@
     </row>
     <row r="46" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
-      <c r="B46" s="111"/>
+      <c r="B46" s="112"/>
       <c r="C46" s="79" t="s">
         <v>194</v>
       </c>
@@ -4045,7 +4048,7 @@
     </row>
     <row r="47" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
-      <c r="B47" s="111"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="79" t="s">
         <v>201</v>
       </c>
@@ -4082,7 +4085,7 @@
     </row>
     <row r="48" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
-      <c r="B48" s="111"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="79" t="s">
         <v>195</v>
       </c>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="49" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
-      <c r="B49" s="111"/>
+      <c r="B49" s="112"/>
       <c r="C49" s="79" t="s">
         <v>196</v>
       </c>
@@ -4156,7 +4159,7 @@
     </row>
     <row r="50" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
-      <c r="B50" s="111"/>
+      <c r="B50" s="112"/>
       <c r="C50" s="80" t="s">
         <v>197</v>
       </c>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="51" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
-      <c r="B51" s="111"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="80" t="s">
         <v>202</v>
       </c>
@@ -4230,7 +4233,7 @@
     </row>
     <row r="52" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
-      <c r="B52" s="111"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="80" t="s">
         <v>198</v>
       </c>
@@ -4267,7 +4270,7 @@
     </row>
     <row r="53" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
-      <c r="B53" s="111"/>
+      <c r="B53" s="112"/>
       <c r="C53" s="80" t="s">
         <v>199</v>
       </c>
@@ -4983,7 +4986,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="AW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF2" sqref="BF2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5025,16 +5028,16 @@
       <c r="F1" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112" t="s">
+      <c r="H1" s="113"/>
+      <c r="I1" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
       <c r="M1" s="106" t="s">
         <v>109</v>
       </c>
@@ -5054,57 +5057,57 @@
       <c r="W1" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="112" t="s">
+      <c r="X1" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112" t="s">
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112" t="s">
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="113"/>
       <c r="AK1" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="AL1" s="112" t="s">
+      <c r="AL1" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="113" t="s">
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="113"/>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="113"/>
-      <c r="AW1" s="113"/>
-      <c r="AX1" s="113"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="115"/>
+      <c r="AX1" s="115"/>
       <c r="AY1" s="46" t="s">
         <v>190</v>
       </c>
       <c r="AZ1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="BA1" s="112" t="s">
+      <c r="BA1" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="BB1" s="112"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="112"/>
+      <c r="BB1" s="113"/>
+      <c r="BC1" s="113"/>
+      <c r="BD1" s="113"/>
       <c r="BE1" s="46"/>
       <c r="BF1" s="46" t="s">
         <v>192</v>
@@ -5115,7 +5118,7 @@
     </row>
     <row r="2" spans="1:59" s="59" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>85</v>
@@ -5317,19 +5320,19 @@
       <c r="H3" s="35">
         <v>257000</v>
       </c>
-      <c r="I3" s="121">
+      <c r="I3" s="110">
         <v>0.34370101248547663</v>
       </c>
-      <c r="J3" s="121">
+      <c r="J3" s="110">
         <v>0.24762554635486786</v>
       </c>
-      <c r="K3" s="121">
+      <c r="K3" s="110">
         <v>0.2971524998616823</v>
       </c>
-      <c r="L3" s="121">
+      <c r="L3" s="110">
         <v>0.11153016247717758</v>
       </c>
-      <c r="M3" s="121">
+      <c r="M3" s="110">
         <v>0.3735946</v>
       </c>
       <c r="N3" s="1">
@@ -5496,19 +5499,19 @@
       <c r="H4" s="35">
         <v>180000</v>
       </c>
-      <c r="I4" s="121">
+      <c r="I4" s="110">
         <v>0.38749952491353423</v>
       </c>
-      <c r="J4" s="121">
+      <c r="J4" s="110">
         <v>0.22449735851925051</v>
       </c>
-      <c r="K4" s="121">
+      <c r="K4" s="110">
         <v>0.29835430048268785</v>
       </c>
-      <c r="L4" s="121">
+      <c r="L4" s="110">
         <v>8.9648816084527377E-2</v>
       </c>
-      <c r="M4" s="121">
+      <c r="M4" s="110">
         <v>0.3467151</v>
       </c>
       <c r="N4" s="1">
@@ -5675,19 +5678,19 @@
       <c r="H5" s="35">
         <v>180000</v>
       </c>
-      <c r="I5" s="121">
+      <c r="I5" s="110">
         <v>0.38749952491353423</v>
       </c>
-      <c r="J5" s="121">
+      <c r="J5" s="110">
         <v>0.22449735851925051</v>
       </c>
-      <c r="K5" s="121">
+      <c r="K5" s="110">
         <v>0.29835430048268785</v>
       </c>
-      <c r="L5" s="121">
+      <c r="L5" s="110">
         <v>8.9648816084527377E-2</v>
       </c>
-      <c r="M5" s="121">
+      <c r="M5" s="110">
         <v>0.48078510000000002</v>
       </c>
       <c r="N5" s="1">
@@ -5854,19 +5857,19 @@
       <c r="H6" s="35">
         <v>202000</v>
       </c>
-      <c r="I6" s="121">
+      <c r="I6" s="110">
         <v>0.37111133717972938</v>
       </c>
-      <c r="J6" s="121">
+      <c r="J6" s="110">
         <v>0.1959859902047697</v>
       </c>
-      <c r="K6" s="121">
+      <c r="K6" s="110">
         <v>0.37472133005856795</v>
       </c>
-      <c r="L6" s="121">
+      <c r="L6" s="110">
         <v>5.8181342556932962E-2</v>
       </c>
-      <c r="M6" s="121">
+      <c r="M6" s="110">
         <v>0.24966179999999999</v>
       </c>
       <c r="N6" s="1">
@@ -6033,19 +6036,19 @@
       <c r="H7" s="35">
         <v>162000</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="110">
         <v>0.38454829888398906</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J7" s="110">
         <v>0.21166268384617279</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K7" s="110">
         <v>0.33594639205735261</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="110">
         <v>6.7847552413096493E-2</v>
       </c>
-      <c r="M7" s="121">
+      <c r="M7" s="110">
         <v>0.40958739999999999</v>
       </c>
       <c r="N7" s="1">
@@ -6212,19 +6215,19 @@
       <c r="H8" s="35">
         <v>202000</v>
       </c>
-      <c r="I8" s="121">
+      <c r="I8" s="110">
         <v>0.37111133717972938</v>
       </c>
-      <c r="J8" s="121">
+      <c r="J8" s="110">
         <v>0.1959859902047697</v>
       </c>
-      <c r="K8" s="121">
+      <c r="K8" s="110">
         <v>0.37472133005856795</v>
       </c>
-      <c r="L8" s="121">
+      <c r="L8" s="110">
         <v>5.8181342556932962E-2</v>
       </c>
-      <c r="M8" s="121">
+      <c r="M8" s="110">
         <v>0.3089693</v>
       </c>
       <c r="N8" s="1">
@@ -6391,19 +6394,19 @@
       <c r="H9" s="35">
         <v>257000</v>
       </c>
-      <c r="I9" s="121">
+      <c r="I9" s="110">
         <v>0.34370101248547663</v>
       </c>
-      <c r="J9" s="121">
+      <c r="J9" s="110">
         <v>0.24762554635486786</v>
       </c>
-      <c r="K9" s="121">
+      <c r="K9" s="110">
         <v>0.2971524998616823</v>
       </c>
-      <c r="L9" s="121">
+      <c r="L9" s="110">
         <v>0.11153016247717758</v>
       </c>
-      <c r="M9" s="121">
+      <c r="M9" s="110">
         <v>0.61366670000000001</v>
       </c>
       <c r="N9" s="1">
@@ -6570,19 +6573,19 @@
       <c r="H10" s="35">
         <v>259000</v>
       </c>
-      <c r="I10" s="121">
+      <c r="I10" s="110">
         <v>0.41955433455433455</v>
       </c>
-      <c r="J10" s="121">
+      <c r="J10" s="110">
         <v>0.19832722832722832</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="110">
         <v>0.32670482295482295</v>
       </c>
-      <c r="L10" s="121">
+      <c r="L10" s="110">
         <v>5.5413614163614164E-2</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="110">
         <v>0.30831710000000001</v>
       </c>
       <c r="N10" s="1">
@@ -6749,19 +6752,19 @@
       <c r="H11" s="35">
         <v>130000</v>
       </c>
-      <c r="I11" s="121">
+      <c r="I11" s="110">
         <v>0.2245441888218524</v>
       </c>
-      <c r="J11" s="121">
+      <c r="J11" s="110">
         <v>0.5364582642710336</v>
       </c>
-      <c r="K11" s="121">
+      <c r="K11" s="110">
         <v>0.19630047072863488</v>
       </c>
-      <c r="L11" s="121">
+      <c r="L11" s="110">
         <v>4.2683816216932978E-2</v>
       </c>
-      <c r="M11" s="121">
+      <c r="M11" s="110">
         <v>0.36123693115752553</v>
       </c>
       <c r="N11" s="1">
@@ -6930,19 +6933,19 @@
       <c r="H12" s="35">
         <v>259000</v>
       </c>
-      <c r="I12" s="121">
+      <c r="I12" s="110">
         <v>0.41955433455433455</v>
       </c>
-      <c r="J12" s="121">
+      <c r="J12" s="110">
         <v>0.19832722832722832</v>
       </c>
-      <c r="K12" s="121">
+      <c r="K12" s="110">
         <v>0.32670482295482295</v>
       </c>
-      <c r="L12" s="121">
+      <c r="L12" s="110">
         <v>5.5413614163614164E-2</v>
       </c>
-      <c r="M12" s="121">
+      <c r="M12" s="110">
         <v>7.1154899999999993E-2</v>
       </c>
       <c r="N12" s="1">
@@ -7109,19 +7112,19 @@
       <c r="H13" s="35">
         <v>195000</v>
       </c>
-      <c r="I13" s="121">
+      <c r="I13" s="110">
         <v>0.34625967167100624</v>
       </c>
-      <c r="J13" s="121">
+      <c r="J13" s="110">
         <v>0.3141346432022849</v>
       </c>
-      <c r="K13" s="121">
+      <c r="K13" s="110">
         <v>0.26346339691860715</v>
       </c>
-      <c r="L13" s="121">
+      <c r="L13" s="110">
         <v>7.6142288208101733E-2</v>
       </c>
-      <c r="M13" s="121">
+      <c r="M13" s="110">
         <v>0.33333329999999994</v>
       </c>
       <c r="N13" s="1">
@@ -7288,19 +7291,19 @@
       <c r="H14" s="35">
         <v>284000</v>
       </c>
-      <c r="I14" s="121">
+      <c r="I14" s="110">
         <v>0.48749761752303777</v>
       </c>
-      <c r="J14" s="121">
+      <c r="J14" s="110">
         <v>0.14972341851714635</v>
       </c>
-      <c r="K14" s="121">
+      <c r="K14" s="110">
         <v>0.30078637801396718</v>
       </c>
-      <c r="L14" s="121">
+      <c r="L14" s="110">
         <v>6.1993656722011521E-2</v>
       </c>
-      <c r="M14" s="121">
+      <c r="M14" s="110">
         <v>0.19035060000000001</v>
       </c>
       <c r="N14" s="1">
@@ -7467,19 +7470,19 @@
       <c r="H15" s="35">
         <v>257000</v>
       </c>
-      <c r="I15" s="121">
+      <c r="I15" s="110">
         <v>0.34370101248547663</v>
       </c>
-      <c r="J15" s="121">
+      <c r="J15" s="110">
         <v>0.24762554635486786</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="110">
         <v>0.2971524998616823</v>
       </c>
-      <c r="L15" s="121">
+      <c r="L15" s="110">
         <v>0.11153016247717758</v>
       </c>
-      <c r="M15" s="121">
+      <c r="M15" s="110">
         <v>3.6941700000000001E-2</v>
       </c>
       <c r="N15" s="1">
@@ -7646,19 +7649,19 @@
       <c r="H16" s="35">
         <v>166000</v>
       </c>
-      <c r="I16" s="121">
+      <c r="I16" s="110">
         <v>0.36808461463604514</v>
       </c>
-      <c r="J16" s="121">
+      <c r="J16" s="110">
         <v>0.21666382833787468</v>
       </c>
-      <c r="K16" s="121">
+      <c r="K16" s="110">
         <v>0.32448788439081355</v>
       </c>
-      <c r="L16" s="121">
+      <c r="L16" s="110">
         <v>9.0763672635266635E-2</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="110">
         <v>0.2745147</v>
       </c>
       <c r="N16" s="1">
@@ -7825,19 +7828,19 @@
       <c r="H17" s="35">
         <v>209000</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="110">
         <v>0.43237541322373596</v>
       </c>
-      <c r="J17" s="121">
+      <c r="J17" s="110">
         <v>0.16811397049287108</v>
       </c>
-      <c r="K17" s="121">
+      <c r="K17" s="110">
         <v>0.3489236728564965</v>
       </c>
-      <c r="L17" s="121">
+      <c r="L17" s="110">
         <v>5.0586943426896507E-2</v>
       </c>
-      <c r="M17" s="121">
+      <c r="M17" s="110">
         <v>0.36826029999999998</v>
       </c>
       <c r="N17" s="1">
@@ -8004,19 +8007,19 @@
       <c r="H18" s="35">
         <v>190000</v>
       </c>
-      <c r="I18" s="121">
+      <c r="I18" s="110">
         <v>0.46408913125619106</v>
       </c>
-      <c r="J18" s="121">
+      <c r="J18" s="110">
         <v>0.20515609203149412</v>
       </c>
-      <c r="K18" s="121">
+      <c r="K18" s="110">
         <v>0.27545111975736036</v>
       </c>
-      <c r="L18" s="121">
+      <c r="L18" s="110">
         <v>5.53036569549544E-2</v>
       </c>
-      <c r="M18" s="121">
+      <c r="M18" s="110">
         <v>0.4900081</v>
       </c>
       <c r="N18" s="1">
@@ -8183,19 +8186,19 @@
       <c r="H19" s="35">
         <v>259000</v>
       </c>
-      <c r="I19" s="121">
+      <c r="I19" s="110">
         <v>0.41955433455433455</v>
       </c>
-      <c r="J19" s="121">
+      <c r="J19" s="110">
         <v>0.19832722832722832</v>
       </c>
-      <c r="K19" s="121">
+      <c r="K19" s="110">
         <v>0.32670482295482295</v>
       </c>
-      <c r="L19" s="121">
+      <c r="L19" s="110">
         <v>5.5413614163614164E-2</v>
       </c>
-      <c r="M19" s="121">
+      <c r="M19" s="110">
         <v>7.3087600000000003E-2</v>
       </c>
       <c r="N19" s="1">
@@ -8362,19 +8365,19 @@
       <c r="H20" s="35">
         <v>195000</v>
       </c>
-      <c r="I20" s="121">
+      <c r="I20" s="110">
         <v>0.34625967167100624</v>
       </c>
-      <c r="J20" s="121">
+      <c r="J20" s="110">
         <v>0.3141346432022849</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="110">
         <v>0.26346339691860715</v>
       </c>
-      <c r="L20" s="121">
+      <c r="L20" s="110">
         <v>7.6142288208101733E-2</v>
       </c>
-      <c r="M20" s="121">
+      <c r="M20" s="110">
         <v>0.19708329999999999</v>
       </c>
       <c r="N20" s="1">
@@ -8541,19 +8544,19 @@
       <c r="H21" s="35">
         <v>162000</v>
       </c>
-      <c r="I21" s="121">
+      <c r="I21" s="110">
         <v>0.38454829888398906</v>
       </c>
-      <c r="J21" s="121">
+      <c r="J21" s="110">
         <v>0.21166268384617279</v>
       </c>
-      <c r="K21" s="121">
+      <c r="K21" s="110">
         <v>0.33594639205735261</v>
       </c>
-      <c r="L21" s="121">
+      <c r="L21" s="110">
         <v>6.7847552413096493E-2</v>
       </c>
-      <c r="M21" s="121">
+      <c r="M21" s="110">
         <v>0.28695150000000003</v>
       </c>
       <c r="N21" s="1">
@@ -8720,19 +8723,19 @@
       <c r="H22" s="35">
         <v>162000</v>
       </c>
-      <c r="I22" s="121">
+      <c r="I22" s="110">
         <v>0.38454829888398906</v>
       </c>
-      <c r="J22" s="121">
+      <c r="J22" s="110">
         <v>0.21166268384617279</v>
       </c>
-      <c r="K22" s="121">
+      <c r="K22" s="110">
         <v>0.33594639205735261</v>
       </c>
-      <c r="L22" s="121">
+      <c r="L22" s="110">
         <v>6.7847552413096493E-2</v>
       </c>
-      <c r="M22" s="121">
+      <c r="M22" s="110">
         <v>0.41162999999999994</v>
       </c>
       <c r="N22" s="1">
@@ -8899,19 +8902,19 @@
       <c r="H23" s="35">
         <v>190000</v>
       </c>
-      <c r="I23" s="121">
+      <c r="I23" s="110">
         <v>0.46408913125619106</v>
       </c>
-      <c r="J23" s="121">
+      <c r="J23" s="110">
         <v>0.20515609203149412</v>
       </c>
-      <c r="K23" s="121">
+      <c r="K23" s="110">
         <v>0.27545111975736036</v>
       </c>
-      <c r="L23" s="121">
+      <c r="L23" s="110">
         <v>5.53036569549544E-2</v>
       </c>
-      <c r="M23" s="121">
+      <c r="M23" s="110">
         <v>0.53576880000000005</v>
       </c>
       <c r="N23" s="1">
@@ -9078,19 +9081,19 @@
       <c r="H24" s="35">
         <v>202000</v>
       </c>
-      <c r="I24" s="121">
+      <c r="I24" s="110">
         <v>0.37111133717972938</v>
       </c>
-      <c r="J24" s="121">
+      <c r="J24" s="110">
         <v>0.1959859902047697</v>
       </c>
-      <c r="K24" s="121">
+      <c r="K24" s="110">
         <v>0.37472133005856795</v>
       </c>
-      <c r="L24" s="121">
+      <c r="L24" s="110">
         <v>5.8181342556932962E-2</v>
       </c>
-      <c r="M24" s="121">
+      <c r="M24" s="110">
         <v>0.2776401</v>
       </c>
       <c r="N24" s="1">
@@ -9257,19 +9260,19 @@
       <c r="H25" s="35">
         <v>162000</v>
       </c>
-      <c r="I25" s="121">
+      <c r="I25" s="110">
         <v>0.38454829888398906</v>
       </c>
-      <c r="J25" s="121">
+      <c r="J25" s="110">
         <v>0.21166268384617279</v>
       </c>
-      <c r="K25" s="121">
+      <c r="K25" s="110">
         <v>0.33594639205735261</v>
       </c>
-      <c r="L25" s="121">
+      <c r="L25" s="110">
         <v>6.7847552413096493E-2</v>
       </c>
-      <c r="M25" s="121">
+      <c r="M25" s="110">
         <v>0.3379586</v>
       </c>
       <c r="N25" s="1">
@@ -9436,19 +9439,19 @@
       <c r="H26" s="35">
         <v>284000</v>
       </c>
-      <c r="I26" s="121">
+      <c r="I26" s="110">
         <v>0.48749761752303777</v>
       </c>
-      <c r="J26" s="121">
+      <c r="J26" s="110">
         <v>0.14972341851714635</v>
       </c>
-      <c r="K26" s="121">
+      <c r="K26" s="110">
         <v>0.30078637801396718</v>
       </c>
-      <c r="L26" s="121">
+      <c r="L26" s="110">
         <v>6.1993656722011521E-2</v>
       </c>
-      <c r="M26" s="121">
+      <c r="M26" s="110">
         <v>3.41172E-2</v>
       </c>
       <c r="N26" s="1">
@@ -9615,19 +9618,19 @@
       <c r="H27" s="35">
         <v>209000</v>
       </c>
-      <c r="I27" s="121">
+      <c r="I27" s="110">
         <v>0.43237541322373596</v>
       </c>
-      <c r="J27" s="121">
+      <c r="J27" s="110">
         <v>0.16811397049287108</v>
       </c>
-      <c r="K27" s="121">
+      <c r="K27" s="110">
         <v>0.3489236728564965</v>
       </c>
-      <c r="L27" s="121">
+      <c r="L27" s="110">
         <v>5.0586943426896507E-2</v>
       </c>
-      <c r="M27" s="121">
+      <c r="M27" s="110">
         <v>0.2268828</v>
       </c>
       <c r="N27" s="1">
@@ -9794,19 +9797,19 @@
       <c r="H28" s="35">
         <v>194000</v>
       </c>
-      <c r="I28" s="121">
+      <c r="I28" s="110">
         <v>0.4492276662509736</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J28" s="110">
         <v>0.22372692115487644</v>
       </c>
-      <c r="K28" s="121">
+      <c r="K28" s="110">
         <v>0.26981032689684359</v>
       </c>
-      <c r="L28" s="121">
+      <c r="L28" s="110">
         <v>5.7239587788527772E-2</v>
       </c>
-      <c r="M28" s="121">
+      <c r="M28" s="110">
         <v>0.36701420000000001</v>
       </c>
       <c r="N28" s="1">
@@ -9973,19 +9976,19 @@
       <c r="H29" s="35">
         <v>194000</v>
       </c>
-      <c r="I29" s="121">
+      <c r="I29" s="110">
         <v>0.4492276662509736</v>
       </c>
-      <c r="J29" s="121">
+      <c r="J29" s="110">
         <v>0.22372692115487644</v>
       </c>
-      <c r="K29" s="121">
+      <c r="K29" s="110">
         <v>0.26981032689684359</v>
       </c>
-      <c r="L29" s="121">
+      <c r="L29" s="110">
         <v>5.7239587788527772E-2</v>
       </c>
-      <c r="M29" s="121">
+      <c r="M29" s="110">
         <v>0.33432610000000001</v>
       </c>
       <c r="N29" s="1">
@@ -10152,19 +10155,19 @@
       <c r="H30" s="35">
         <v>194000</v>
       </c>
-      <c r="I30" s="121">
+      <c r="I30" s="110">
         <v>0.4492276662509736</v>
       </c>
-      <c r="J30" s="121">
+      <c r="J30" s="110">
         <v>0.22372692115487644</v>
       </c>
-      <c r="K30" s="121">
+      <c r="K30" s="110">
         <v>0.26981032689684359</v>
       </c>
-      <c r="L30" s="121">
+      <c r="L30" s="110">
         <v>5.7239587788527772E-2</v>
       </c>
-      <c r="M30" s="121">
+      <c r="M30" s="110">
         <v>0.24422289999999999</v>
       </c>
       <c r="N30" s="1">
@@ -10331,19 +10334,19 @@
       <c r="H31" s="35">
         <v>194000</v>
       </c>
-      <c r="I31" s="121">
+      <c r="I31" s="110">
         <v>0.4492276662509736</v>
       </c>
-      <c r="J31" s="121">
+      <c r="J31" s="110">
         <v>0.22372692115487644</v>
       </c>
-      <c r="K31" s="121">
+      <c r="K31" s="110">
         <v>0.26981032689684359</v>
       </c>
-      <c r="L31" s="121">
+      <c r="L31" s="110">
         <v>5.7239587788527772E-2</v>
       </c>
-      <c r="M31" s="121">
+      <c r="M31" s="110">
         <v>0.45789270000000004</v>
       </c>
       <c r="N31" s="1">
@@ -10508,19 +10511,19 @@
       <c r="H32" s="35">
         <v>180000</v>
       </c>
-      <c r="I32" s="121">
+      <c r="I32" s="110">
         <v>0.38749952491353423</v>
       </c>
-      <c r="J32" s="121">
+      <c r="J32" s="110">
         <v>0.22449735851925051</v>
       </c>
-      <c r="K32" s="121">
+      <c r="K32" s="110">
         <v>0.29835430048268785</v>
       </c>
-      <c r="L32" s="121">
+      <c r="L32" s="110">
         <v>8.9648816084527377E-2</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="110">
         <v>0</v>
       </c>
       <c r="N32" s="1">
@@ -10687,19 +10690,19 @@
       <c r="H33" s="35">
         <v>166000</v>
       </c>
-      <c r="I33" s="121">
+      <c r="I33" s="110">
         <v>0.36808461463604514</v>
       </c>
-      <c r="J33" s="121">
+      <c r="J33" s="110">
         <v>0.21666382833787468</v>
       </c>
-      <c r="K33" s="121">
+      <c r="K33" s="110">
         <v>0.32448788439081355</v>
       </c>
-      <c r="L33" s="121">
+      <c r="L33" s="110">
         <v>9.0763672635266635E-2</v>
       </c>
-      <c r="M33" s="121">
+      <c r="M33" s="110">
         <v>0.63702570000000003</v>
       </c>
       <c r="N33" s="1">
@@ -10866,19 +10869,19 @@
       <c r="H34" s="35">
         <v>202000</v>
       </c>
-      <c r="I34" s="121">
+      <c r="I34" s="110">
         <v>0.37111133717972938</v>
       </c>
-      <c r="J34" s="121">
+      <c r="J34" s="110">
         <v>0.1959859902047697</v>
       </c>
-      <c r="K34" s="121">
+      <c r="K34" s="110">
         <v>0.37472133005856795</v>
       </c>
-      <c r="L34" s="121">
+      <c r="L34" s="110">
         <v>5.8181342556932962E-2</v>
       </c>
-      <c r="M34" s="121">
+      <c r="M34" s="110">
         <v>0.25196210000000002</v>
       </c>
       <c r="N34" s="1">
@@ -11045,19 +11048,19 @@
       <c r="H35" s="35">
         <v>257000</v>
       </c>
-      <c r="I35" s="121">
+      <c r="I35" s="110">
         <v>0.34370101248547663</v>
       </c>
-      <c r="J35" s="121">
+      <c r="J35" s="110">
         <v>0.24762554635486786</v>
       </c>
-      <c r="K35" s="121">
+      <c r="K35" s="110">
         <v>0.2971524998616823</v>
       </c>
-      <c r="L35" s="121">
+      <c r="L35" s="110">
         <v>0.11153016247717758</v>
       </c>
-      <c r="M35" s="121">
+      <c r="M35" s="110">
         <v>0.42447430000000003</v>
       </c>
       <c r="N35" s="1">
@@ -11224,19 +11227,19 @@
       <c r="H36" s="35">
         <v>204000</v>
       </c>
-      <c r="I36" s="121">
+      <c r="I36" s="110">
         <v>0.3516341785138502</v>
       </c>
-      <c r="J36" s="121">
+      <c r="J36" s="110">
         <v>0.20141956826699609</v>
       </c>
-      <c r="K36" s="121">
+      <c r="K36" s="110">
         <v>0.38935114423902351</v>
       </c>
-      <c r="L36" s="121">
+      <c r="L36" s="110">
         <v>5.7599296497142023E-2</v>
       </c>
-      <c r="M36" s="121">
+      <c r="M36" s="110">
         <v>9.8818699999999995E-2</v>
       </c>
       <c r="N36" s="1">
@@ -11403,19 +11406,19 @@
       <c r="H37" s="35">
         <v>204000</v>
       </c>
-      <c r="I37" s="121">
+      <c r="I37" s="110">
         <v>0.3516341785138502</v>
       </c>
-      <c r="J37" s="121">
+      <c r="J37" s="110">
         <v>0.20141956826699609</v>
       </c>
-      <c r="K37" s="121">
+      <c r="K37" s="110">
         <v>0.38935114423902351</v>
       </c>
-      <c r="L37" s="121">
+      <c r="L37" s="110">
         <v>5.7599296497142023E-2</v>
       </c>
-      <c r="M37" s="121">
+      <c r="M37" s="110">
         <v>0.17289760000000001</v>
       </c>
       <c r="N37" s="1">
@@ -11582,19 +11585,19 @@
       <c r="H38" s="35">
         <v>202000</v>
       </c>
-      <c r="I38" s="121">
+      <c r="I38" s="110">
         <v>0.37111133717972938</v>
       </c>
-      <c r="J38" s="121">
+      <c r="J38" s="110">
         <v>0.1959859902047697</v>
       </c>
-      <c r="K38" s="121">
+      <c r="K38" s="110">
         <v>0.37472133005856795</v>
       </c>
-      <c r="L38" s="121">
+      <c r="L38" s="110">
         <v>5.8181342556932962E-2</v>
       </c>
-      <c r="M38" s="121">
+      <c r="M38" s="110">
         <v>0.26209529999999998</v>
       </c>
       <c r="N38" s="1">
@@ -11761,19 +11764,19 @@
       <c r="H39" s="35">
         <v>195000</v>
       </c>
-      <c r="I39" s="121">
+      <c r="I39" s="110">
         <v>0.34625967167100624</v>
       </c>
-      <c r="J39" s="121">
+      <c r="J39" s="110">
         <v>0.3141346432022849</v>
       </c>
-      <c r="K39" s="121">
+      <c r="K39" s="110">
         <v>0.26346339691860715</v>
       </c>
-      <c r="L39" s="121">
+      <c r="L39" s="110">
         <v>7.6142288208101733E-2</v>
       </c>
-      <c r="M39" s="121">
+      <c r="M39" s="110">
         <v>0.24370120000000001</v>
       </c>
       <c r="N39" s="1">
@@ -11940,19 +11943,19 @@
       <c r="H40" s="35">
         <v>257000</v>
       </c>
-      <c r="I40" s="121">
+      <c r="I40" s="110">
         <v>0.34370101248547663</v>
       </c>
-      <c r="J40" s="121">
+      <c r="J40" s="110">
         <v>0.24762554635486786</v>
       </c>
-      <c r="K40" s="121">
+      <c r="K40" s="110">
         <v>0.2971524998616823</v>
       </c>
-      <c r="L40" s="121">
+      <c r="L40" s="110">
         <v>0.11153016247717758</v>
       </c>
-      <c r="M40" s="121">
+      <c r="M40" s="110">
         <v>0.26767800000000003</v>
       </c>
       <c r="N40" s="1">
@@ -12119,19 +12122,19 @@
       <c r="H41" s="35">
         <v>204000</v>
       </c>
-      <c r="I41" s="121">
+      <c r="I41" s="110">
         <v>0.3516341785138502</v>
       </c>
-      <c r="J41" s="121">
+      <c r="J41" s="110">
         <v>0.20141956826699609</v>
       </c>
-      <c r="K41" s="121">
+      <c r="K41" s="110">
         <v>0.38935114423902351</v>
       </c>
-      <c r="L41" s="121">
+      <c r="L41" s="110">
         <v>5.7599296497142023E-2</v>
       </c>
-      <c r="M41" s="121">
+      <c r="M41" s="110">
         <v>0.18496580000000001</v>
       </c>
       <c r="N41" s="1">
@@ -12298,19 +12301,19 @@
       <c r="H42" s="35">
         <v>284000</v>
       </c>
-      <c r="I42" s="121">
+      <c r="I42" s="110">
         <v>0.48749761752303777</v>
       </c>
-      <c r="J42" s="121">
+      <c r="J42" s="110">
         <v>0.14972341851714635</v>
       </c>
-      <c r="K42" s="121">
+      <c r="K42" s="110">
         <v>0.30078637801396718</v>
       </c>
-      <c r="L42" s="121">
+      <c r="L42" s="110">
         <v>6.1993656722011521E-2</v>
       </c>
-      <c r="M42" s="121">
+      <c r="M42" s="110">
         <v>6.3934299999999999E-2</v>
       </c>
       <c r="N42" s="1">
@@ -12477,19 +12480,19 @@
       <c r="H43" s="35">
         <v>190000</v>
       </c>
-      <c r="I43" s="121">
+      <c r="I43" s="110">
         <v>0.46408913125619106</v>
       </c>
-      <c r="J43" s="121">
+      <c r="J43" s="110">
         <v>0.20515609203149412</v>
       </c>
-      <c r="K43" s="121">
+      <c r="K43" s="110">
         <v>0.27545111975736036</v>
       </c>
-      <c r="L43" s="121">
+      <c r="L43" s="110">
         <v>5.53036569549544E-2</v>
       </c>
-      <c r="M43" s="121">
+      <c r="M43" s="110">
         <v>0.49061009999999994</v>
       </c>
       <c r="N43" s="1">
@@ -12656,19 +12659,19 @@
       <c r="H44" s="35">
         <v>130000</v>
       </c>
-      <c r="I44" s="121">
+      <c r="I44" s="110">
         <v>0.2245441888218524</v>
       </c>
-      <c r="J44" s="121">
+      <c r="J44" s="110">
         <v>0.5364582642710336</v>
       </c>
-      <c r="K44" s="121">
+      <c r="K44" s="110">
         <v>0.19630047072863488</v>
       </c>
-      <c r="L44" s="121">
+      <c r="L44" s="110">
         <v>4.2683816216932978E-2</v>
       </c>
-      <c r="M44" s="121">
+      <c r="M44" s="110">
         <v>0.73767920000000009</v>
       </c>
       <c r="N44" s="1">
@@ -12835,19 +12838,19 @@
       <c r="H45" s="35">
         <v>166000</v>
       </c>
-      <c r="I45" s="121">
+      <c r="I45" s="110">
         <v>0.36808461463604514</v>
       </c>
-      <c r="J45" s="121">
+      <c r="J45" s="110">
         <v>0.21666382833787468</v>
       </c>
-      <c r="K45" s="121">
+      <c r="K45" s="110">
         <v>0.32448788439081355</v>
       </c>
-      <c r="L45" s="121">
+      <c r="L45" s="110">
         <v>9.0763672635266635E-2</v>
       </c>
-      <c r="M45" s="121">
+      <c r="M45" s="110">
         <v>0.39242640000000001</v>
       </c>
       <c r="N45" s="1">
@@ -13014,19 +13017,19 @@
       <c r="H46" s="35">
         <v>130000</v>
       </c>
-      <c r="I46" s="121">
+      <c r="I46" s="110">
         <v>0.2245441888218524</v>
       </c>
-      <c r="J46" s="121">
+      <c r="J46" s="110">
         <v>0.5364582642710336</v>
       </c>
-      <c r="K46" s="121">
+      <c r="K46" s="110">
         <v>0.19630047072863488</v>
       </c>
-      <c r="L46" s="121">
+      <c r="L46" s="110">
         <v>4.2683816216932978E-2</v>
       </c>
-      <c r="M46" s="121">
+      <c r="M46" s="110">
         <v>0.58918599564895524</v>
       </c>
       <c r="N46" s="1">
@@ -13195,19 +13198,19 @@
       <c r="H47" s="35">
         <v>179000</v>
       </c>
-      <c r="I47" s="121">
+      <c r="I47" s="110">
         <v>0.33130993914172618</v>
       </c>
-      <c r="J47" s="121">
+      <c r="J47" s="110">
         <v>0.26140114832835309</v>
       </c>
-      <c r="K47" s="121">
+      <c r="K47" s="110">
         <v>0.29995775903878347</v>
       </c>
-      <c r="L47" s="121">
+      <c r="L47" s="110">
         <v>0.10732333109091194</v>
       </c>
-      <c r="M47" s="121">
+      <c r="M47" s="110">
         <v>0.3291193</v>
       </c>
       <c r="N47" s="1">
@@ -13374,19 +13377,19 @@
       <c r="H48" s="35">
         <v>162000</v>
       </c>
-      <c r="I48" s="121">
+      <c r="I48" s="110">
         <v>0.38454829888398906</v>
       </c>
-      <c r="J48" s="121">
+      <c r="J48" s="110">
         <v>0.21166268384617279</v>
       </c>
-      <c r="K48" s="121">
+      <c r="K48" s="110">
         <v>0.33594639205735261</v>
       </c>
-      <c r="L48" s="121">
+      <c r="L48" s="110">
         <v>6.7847552413096493E-2</v>
       </c>
-      <c r="M48" s="121">
+      <c r="M48" s="110">
         <v>0.51323059999999998</v>
       </c>
       <c r="N48" s="1">
@@ -13553,19 +13556,19 @@
       <c r="H49" s="35">
         <v>190000</v>
       </c>
-      <c r="I49" s="121">
+      <c r="I49" s="110">
         <v>0.46408913125619106</v>
       </c>
-      <c r="J49" s="121">
+      <c r="J49" s="110">
         <v>0.20515609203149412</v>
       </c>
-      <c r="K49" s="121">
+      <c r="K49" s="110">
         <v>0.27545111975736036</v>
       </c>
-      <c r="L49" s="121">
+      <c r="L49" s="110">
         <v>5.53036569549544E-2</v>
       </c>
-      <c r="M49" s="121">
+      <c r="M49" s="110">
         <v>0.42785279999999998</v>
       </c>
       <c r="N49" s="1">
@@ -13732,19 +13735,19 @@
       <c r="H50" s="35">
         <v>190000</v>
       </c>
-      <c r="I50" s="121">
+      <c r="I50" s="110">
         <v>0.46408913125619106</v>
       </c>
-      <c r="J50" s="121">
+      <c r="J50" s="110">
         <v>0.20515609203149412</v>
       </c>
-      <c r="K50" s="121">
+      <c r="K50" s="110">
         <v>0.27545111975736036</v>
       </c>
-      <c r="L50" s="121">
+      <c r="L50" s="110">
         <v>5.53036569549544E-2</v>
       </c>
-      <c r="M50" s="121">
+      <c r="M50" s="110">
         <v>0.23438030000000001</v>
       </c>
       <c r="N50" s="1">
@@ -13911,19 +13914,19 @@
       <c r="H51" s="35">
         <v>257000</v>
       </c>
-      <c r="I51" s="121">
+      <c r="I51" s="110">
         <v>0.34370101248547663</v>
       </c>
-      <c r="J51" s="121">
+      <c r="J51" s="110">
         <v>0.24762554635486786</v>
       </c>
-      <c r="K51" s="121">
+      <c r="K51" s="110">
         <v>0.2971524998616823</v>
       </c>
-      <c r="L51" s="121">
+      <c r="L51" s="110">
         <v>0.11153016247717758</v>
       </c>
-      <c r="M51" s="121">
+      <c r="M51" s="110">
         <v>0.37634849999999997</v>
       </c>
       <c r="N51" s="1">
@@ -14090,19 +14093,19 @@
       <c r="H52" s="35">
         <v>202000</v>
       </c>
-      <c r="I52" s="121">
+      <c r="I52" s="110">
         <v>0.37111133717972938</v>
       </c>
-      <c r="J52" s="121">
+      <c r="J52" s="110">
         <v>0.1959859902047697</v>
       </c>
-      <c r="K52" s="121">
+      <c r="K52" s="110">
         <v>0.37472133005856795</v>
       </c>
-      <c r="L52" s="121">
+      <c r="L52" s="110">
         <v>5.8181342556932962E-2</v>
       </c>
-      <c r="M52" s="121">
+      <c r="M52" s="110">
         <v>0.323328</v>
       </c>
       <c r="N52" s="1">
@@ -14269,19 +14272,19 @@
       <c r="H53" s="35">
         <v>209000</v>
       </c>
-      <c r="I53" s="121">
+      <c r="I53" s="110">
         <v>0.43237541322373596</v>
       </c>
-      <c r="J53" s="121">
+      <c r="J53" s="110">
         <v>0.16811397049287108</v>
       </c>
-      <c r="K53" s="121">
+      <c r="K53" s="110">
         <v>0.3489236728564965</v>
       </c>
-      <c r="L53" s="121">
+      <c r="L53" s="110">
         <v>5.0586943426896507E-2</v>
       </c>
-      <c r="M53" s="121">
+      <c r="M53" s="110">
         <v>0.50061610000000001</v>
       </c>
       <c r="N53" s="1">
@@ -14448,19 +14451,19 @@
       <c r="H54" s="35">
         <v>163000</v>
       </c>
-      <c r="I54" s="121">
+      <c r="I54" s="110">
         <v>0.39901189176767965</v>
       </c>
-      <c r="J54" s="121">
+      <c r="J54" s="110">
         <v>0.25251910151088641</v>
       </c>
-      <c r="K54" s="121">
+      <c r="K54" s="110">
         <v>0.27151146090653183</v>
       </c>
-      <c r="L54" s="121">
+      <c r="L54" s="110">
         <v>7.6957545814902051E-2</v>
       </c>
-      <c r="M54" s="121">
+      <c r="M54" s="110">
         <v>0.52356020000000003</v>
       </c>
       <c r="N54" s="1">
@@ -14627,19 +14630,19 @@
       <c r="H55" s="35">
         <v>166000</v>
       </c>
-      <c r="I55" s="121">
+      <c r="I55" s="110">
         <v>0.36808461463604514</v>
       </c>
-      <c r="J55" s="121">
+      <c r="J55" s="110">
         <v>0.21666382833787468</v>
       </c>
-      <c r="K55" s="121">
+      <c r="K55" s="110">
         <v>0.32448788439081355</v>
       </c>
-      <c r="L55" s="121">
+      <c r="L55" s="110">
         <v>9.0763672635266635E-2</v>
       </c>
-      <c r="M55" s="121">
+      <c r="M55" s="110">
         <v>0.50190009999999996</v>
       </c>
       <c r="N55" s="1">
@@ -14806,19 +14809,19 @@
       <c r="H56" s="35">
         <v>259000</v>
       </c>
-      <c r="I56" s="121">
+      <c r="I56" s="110">
         <v>0.41955433455433455</v>
       </c>
-      <c r="J56" s="121">
+      <c r="J56" s="110">
         <v>0.19832722832722832</v>
       </c>
-      <c r="K56" s="121">
+      <c r="K56" s="110">
         <v>0.32670482295482295</v>
       </c>
-      <c r="L56" s="121">
+      <c r="L56" s="110">
         <v>5.5413614163614164E-2</v>
       </c>
-      <c r="M56" s="121">
+      <c r="M56" s="110">
         <v>0.25195800000000002</v>
       </c>
       <c r="N56" s="1">
@@ -14985,19 +14988,19 @@
       <c r="H57" s="35">
         <v>195000</v>
       </c>
-      <c r="I57" s="121">
+      <c r="I57" s="110">
         <v>0.34625967167100624</v>
       </c>
-      <c r="J57" s="121">
+      <c r="J57" s="110">
         <v>0.3141346432022849</v>
       </c>
-      <c r="K57" s="121">
+      <c r="K57" s="110">
         <v>0.26346339691860715</v>
       </c>
-      <c r="L57" s="121">
+      <c r="L57" s="110">
         <v>7.6142288208101733E-2</v>
       </c>
-      <c r="M57" s="121">
+      <c r="M57" s="110">
         <v>0.20670430000000001</v>
       </c>
       <c r="N57" s="1">
@@ -15164,19 +15167,19 @@
       <c r="H58" s="35">
         <v>179000</v>
       </c>
-      <c r="I58" s="121">
+      <c r="I58" s="110">
         <v>0.33130993914172618</v>
       </c>
-      <c r="J58" s="121">
+      <c r="J58" s="110">
         <v>0.26140114832835309</v>
       </c>
-      <c r="K58" s="121">
+      <c r="K58" s="110">
         <v>0.29995775903878347</v>
       </c>
-      <c r="L58" s="121">
+      <c r="L58" s="110">
         <v>0.10732333109091194</v>
       </c>
-      <c r="M58" s="121">
+      <c r="M58" s="110">
         <v>0.38095289999999998</v>
       </c>
       <c r="N58" s="1">
@@ -15343,19 +15346,19 @@
       <c r="H59" s="35">
         <v>179000</v>
       </c>
-      <c r="I59" s="121">
+      <c r="I59" s="110">
         <v>0.33130993914172618</v>
       </c>
-      <c r="J59" s="121">
+      <c r="J59" s="110">
         <v>0.26140114832835309</v>
       </c>
-      <c r="K59" s="121">
+      <c r="K59" s="110">
         <v>0.29995775903878347</v>
       </c>
-      <c r="L59" s="121">
+      <c r="L59" s="110">
         <v>0.10732333109091194</v>
       </c>
-      <c r="M59" s="121">
+      <c r="M59" s="110">
         <v>0.29326249999999998</v>
       </c>
       <c r="N59" s="1">
@@ -15522,19 +15525,19 @@
       <c r="H60" s="35">
         <v>179000</v>
       </c>
-      <c r="I60" s="121">
+      <c r="I60" s="110">
         <v>0.33130993914172618</v>
       </c>
-      <c r="J60" s="121">
+      <c r="J60" s="110">
         <v>0.26140114832835309</v>
       </c>
-      <c r="K60" s="121">
+      <c r="K60" s="110">
         <v>0.29995775903878347</v>
       </c>
-      <c r="L60" s="121">
+      <c r="L60" s="110">
         <v>0.10732333109091194</v>
       </c>
-      <c r="M60" s="121">
+      <c r="M60" s="110">
         <v>0.26381149999999998</v>
       </c>
       <c r="N60" s="1">
@@ -15701,19 +15704,19 @@
       <c r="H61" s="35">
         <v>259000</v>
       </c>
-      <c r="I61" s="121">
+      <c r="I61" s="110">
         <v>0.41955433455433455</v>
       </c>
-      <c r="J61" s="121">
+      <c r="J61" s="110">
         <v>0.19832722832722832</v>
       </c>
-      <c r="K61" s="121">
+      <c r="K61" s="110">
         <v>0.32670482295482295</v>
       </c>
-      <c r="L61" s="121">
+      <c r="L61" s="110">
         <v>5.5413614163614164E-2</v>
       </c>
-      <c r="M61" s="121">
+      <c r="M61" s="110">
         <v>7.58104E-2</v>
       </c>
       <c r="N61" s="1">
@@ -15880,19 +15883,19 @@
       <c r="H62" s="35">
         <v>204000</v>
       </c>
-      <c r="I62" s="121">
+      <c r="I62" s="110">
         <v>0.3516341785138502</v>
       </c>
-      <c r="J62" s="121">
+      <c r="J62" s="110">
         <v>0.20141956826699609</v>
       </c>
-      <c r="K62" s="121">
+      <c r="K62" s="110">
         <v>0.38935114423902351</v>
       </c>
-      <c r="L62" s="121">
+      <c r="L62" s="110">
         <v>5.7599296497142023E-2</v>
       </c>
-      <c r="M62" s="121">
+      <c r="M62" s="110">
         <v>0.20371790000000001</v>
       </c>
       <c r="N62" s="1">
@@ -16059,19 +16062,19 @@
       <c r="H63" s="35">
         <v>284000</v>
       </c>
-      <c r="I63" s="121">
+      <c r="I63" s="110">
         <v>0.48749761752303777</v>
       </c>
-      <c r="J63" s="121">
+      <c r="J63" s="110">
         <v>0.14972341851714635</v>
       </c>
-      <c r="K63" s="121">
+      <c r="K63" s="110">
         <v>0.30078637801396718</v>
       </c>
-      <c r="L63" s="121">
+      <c r="L63" s="110">
         <v>6.1993656722011521E-2</v>
       </c>
-      <c r="M63" s="121">
+      <c r="M63" s="110">
         <v>0.27542299999999997</v>
       </c>
       <c r="N63" s="1">
@@ -16238,19 +16241,19 @@
       <c r="H64" s="35">
         <v>195000</v>
       </c>
-      <c r="I64" s="121">
+      <c r="I64" s="110">
         <v>0.34625967167100624</v>
       </c>
-      <c r="J64" s="121">
+      <c r="J64" s="110">
         <v>0.3141346432022849</v>
       </c>
-      <c r="K64" s="121">
+      <c r="K64" s="110">
         <v>0.26346339691860715</v>
       </c>
-      <c r="L64" s="121">
+      <c r="L64" s="110">
         <v>7.6142288208101733E-2</v>
       </c>
-      <c r="M64" s="121">
+      <c r="M64" s="110">
         <v>0.212089</v>
       </c>
       <c r="N64" s="1">
@@ -16417,19 +16420,19 @@
       <c r="H65" s="35">
         <v>284000</v>
       </c>
-      <c r="I65" s="121">
+      <c r="I65" s="110">
         <v>0.48749761752303777</v>
       </c>
-      <c r="J65" s="121">
+      <c r="J65" s="110">
         <v>0.14972341851714635</v>
       </c>
-      <c r="K65" s="121">
+      <c r="K65" s="110">
         <v>0.30078637801396718</v>
       </c>
-      <c r="L65" s="121">
+      <c r="L65" s="110">
         <v>6.1993656722011521E-2</v>
       </c>
-      <c r="M65" s="121">
+      <c r="M65" s="110">
         <v>6.0974E-2</v>
       </c>
       <c r="N65" s="1">
@@ -16596,19 +16599,19 @@
       <c r="H66" s="35">
         <v>179000</v>
       </c>
-      <c r="I66" s="121">
+      <c r="I66" s="110">
         <v>0.33130993914172618</v>
       </c>
-      <c r="J66" s="121">
+      <c r="J66" s="110">
         <v>0.26140114832835309</v>
       </c>
-      <c r="K66" s="121">
+      <c r="K66" s="110">
         <v>0.29995775903878347</v>
       </c>
-      <c r="L66" s="121">
+      <c r="L66" s="110">
         <v>0.10732333109091194</v>
       </c>
-      <c r="M66" s="121">
+      <c r="M66" s="110">
         <v>0.40471800000000002</v>
       </c>
       <c r="N66" s="1">
@@ -16775,19 +16778,19 @@
       <c r="H67" s="35">
         <v>166000</v>
       </c>
-      <c r="I67" s="121">
+      <c r="I67" s="110">
         <v>0.36808461463604514</v>
       </c>
-      <c r="J67" s="121">
+      <c r="J67" s="110">
         <v>0.21666382833787468</v>
       </c>
-      <c r="K67" s="121">
+      <c r="K67" s="110">
         <v>0.32448788439081355</v>
       </c>
-      <c r="L67" s="121">
+      <c r="L67" s="110">
         <v>9.0763672635266635E-2</v>
       </c>
-      <c r="M67" s="121">
+      <c r="M67" s="110">
         <v>0.50027080000000002</v>
       </c>
       <c r="N67" s="1">
@@ -16954,19 +16957,19 @@
       <c r="H68" s="35">
         <v>163000</v>
       </c>
-      <c r="I68" s="121">
+      <c r="I68" s="110">
         <v>0.39901189176767965</v>
       </c>
-      <c r="J68" s="121">
+      <c r="J68" s="110">
         <v>0.25251910151088641</v>
       </c>
-      <c r="K68" s="121">
+      <c r="K68" s="110">
         <v>0.27151146090653183</v>
       </c>
-      <c r="L68" s="121">
+      <c r="L68" s="110">
         <v>7.6957545814902051E-2</v>
       </c>
-      <c r="M68" s="121">
+      <c r="M68" s="110">
         <v>0.53150330000000001</v>
       </c>
       <c r="N68" s="1">
@@ -17133,19 +17136,19 @@
       <c r="H69" s="35">
         <v>209000</v>
       </c>
-      <c r="I69" s="121">
+      <c r="I69" s="110">
         <v>0.43237541322373596</v>
       </c>
-      <c r="J69" s="121">
+      <c r="J69" s="110">
         <v>0.16811397049287108</v>
       </c>
-      <c r="K69" s="121">
+      <c r="K69" s="110">
         <v>0.3489236728564965</v>
       </c>
-      <c r="L69" s="121">
+      <c r="L69" s="110">
         <v>5.0586943426896507E-2</v>
       </c>
-      <c r="M69" s="121">
+      <c r="M69" s="110">
         <v>0.32574740000000008</v>
       </c>
       <c r="N69" s="1">
@@ -17312,19 +17315,19 @@
       <c r="H70" s="35">
         <v>162000</v>
       </c>
-      <c r="I70" s="121">
+      <c r="I70" s="110">
         <v>0.38454829888398906</v>
       </c>
-      <c r="J70" s="121">
+      <c r="J70" s="110">
         <v>0.21166268384617279</v>
       </c>
-      <c r="K70" s="121">
+      <c r="K70" s="110">
         <v>0.33594639205735261</v>
       </c>
-      <c r="L70" s="121">
+      <c r="L70" s="110">
         <v>6.7847552413096493E-2</v>
       </c>
-      <c r="M70" s="121">
+      <c r="M70" s="110">
         <v>0.40672760000000002</v>
       </c>
       <c r="N70" s="1">
@@ -17491,19 +17494,19 @@
       <c r="H71" s="35">
         <v>163000</v>
       </c>
-      <c r="I71" s="121">
+      <c r="I71" s="110">
         <v>0.39901189176767965</v>
       </c>
-      <c r="J71" s="121">
+      <c r="J71" s="110">
         <v>0.25251910151088641</v>
       </c>
-      <c r="K71" s="121">
+      <c r="K71" s="110">
         <v>0.27151146090653183</v>
       </c>
-      <c r="L71" s="121">
+      <c r="L71" s="110">
         <v>7.6957545814902051E-2</v>
       </c>
-      <c r="M71" s="121">
+      <c r="M71" s="110">
         <v>0.31981510000000002</v>
       </c>
       <c r="N71" s="1">
@@ -17670,19 +17673,19 @@
       <c r="H72" s="35">
         <v>166000</v>
       </c>
-      <c r="I72" s="121">
+      <c r="I72" s="110">
         <v>0.36808461463604514</v>
       </c>
-      <c r="J72" s="121">
+      <c r="J72" s="110">
         <v>0.21666382833787468</v>
       </c>
-      <c r="K72" s="121">
+      <c r="K72" s="110">
         <v>0.32448788439081355</v>
       </c>
-      <c r="L72" s="121">
+      <c r="L72" s="110">
         <v>9.0763672635266635E-2</v>
       </c>
-      <c r="M72" s="121">
+      <c r="M72" s="110">
         <v>0.43279319999999999</v>
       </c>
       <c r="N72" s="1">
@@ -17849,19 +17852,19 @@
       <c r="H73" s="35">
         <v>163000</v>
       </c>
-      <c r="I73" s="121">
+      <c r="I73" s="110">
         <v>0.39901189176767965</v>
       </c>
-      <c r="J73" s="121">
+      <c r="J73" s="110">
         <v>0.25251910151088641</v>
       </c>
-      <c r="K73" s="121">
+      <c r="K73" s="110">
         <v>0.27151146090653183</v>
       </c>
-      <c r="L73" s="121">
+      <c r="L73" s="110">
         <v>7.6957545814902051E-2</v>
       </c>
-      <c r="M73" s="121">
+      <c r="M73" s="110">
         <v>0.48474390000000001</v>
       </c>
       <c r="N73" s="1">
@@ -18028,19 +18031,19 @@
       <c r="H74" s="35">
         <v>130000</v>
       </c>
-      <c r="I74" s="121">
+      <c r="I74" s="110">
         <v>0.2245441888218524</v>
       </c>
-      <c r="J74" s="121">
+      <c r="J74" s="110">
         <v>0.5364582642710336</v>
       </c>
-      <c r="K74" s="121">
+      <c r="K74" s="110">
         <v>0.19630047072863488</v>
       </c>
-      <c r="L74" s="121">
+      <c r="L74" s="110">
         <v>4.2683816216932978E-2</v>
       </c>
-      <c r="M74" s="121">
+      <c r="M74" s="110">
         <v>0.45823550000000002</v>
       </c>
       <c r="N74" s="1">
@@ -18207,19 +18210,19 @@
       <c r="H75" s="35">
         <v>180000</v>
       </c>
-      <c r="I75" s="121">
+      <c r="I75" s="110">
         <v>0.38749952491353423</v>
       </c>
-      <c r="J75" s="121">
+      <c r="J75" s="110">
         <v>0.22449735851925051</v>
       </c>
-      <c r="K75" s="121">
+      <c r="K75" s="110">
         <v>0.29835430048268785</v>
       </c>
-      <c r="L75" s="121">
+      <c r="L75" s="110">
         <v>8.9648816084527377E-2</v>
       </c>
-      <c r="M75" s="121">
+      <c r="M75" s="110">
         <v>0.41843029999999998</v>
       </c>
       <c r="N75" s="1">
@@ -18386,19 +18389,19 @@
       <c r="H76" s="35">
         <v>180000</v>
       </c>
-      <c r="I76" s="121">
+      <c r="I76" s="110">
         <v>0.38749952491353423</v>
       </c>
-      <c r="J76" s="121">
+      <c r="J76" s="110">
         <v>0.22449735851925051</v>
       </c>
-      <c r="K76" s="121">
+      <c r="K76" s="110">
         <v>0.29835430048268785</v>
       </c>
-      <c r="L76" s="121">
+      <c r="L76" s="110">
         <v>8.9648816084527377E-2</v>
       </c>
-      <c r="M76" s="121">
+      <c r="M76" s="110">
         <v>0.36005769999999998</v>
       </c>
       <c r="N76" s="1">
@@ -18565,19 +18568,19 @@
       <c r="H77" s="35">
         <v>259000</v>
       </c>
-      <c r="I77" s="121">
+      <c r="I77" s="110">
         <v>0.41955433455433455</v>
       </c>
-      <c r="J77" s="121">
+      <c r="J77" s="110">
         <v>0.19832722832722832</v>
       </c>
-      <c r="K77" s="121">
+      <c r="K77" s="110">
         <v>0.32670482295482295</v>
       </c>
-      <c r="L77" s="121">
+      <c r="L77" s="110">
         <v>5.5413614163614164E-2</v>
       </c>
-      <c r="M77" s="121">
+      <c r="M77" s="110">
         <v>0.16557089999999999</v>
       </c>
       <c r="N77" s="1">
@@ -18744,19 +18747,19 @@
       <c r="H78" s="35">
         <v>130000</v>
       </c>
-      <c r="I78" s="121">
+      <c r="I78" s="110">
         <v>0.2245441888218524</v>
       </c>
-      <c r="J78" s="121">
+      <c r="J78" s="110">
         <v>0.5364582642710336</v>
       </c>
-      <c r="K78" s="121">
+      <c r="K78" s="110">
         <v>0.19630047072863488</v>
       </c>
-      <c r="L78" s="121">
+      <c r="L78" s="110">
         <v>4.2683816216932978E-2</v>
       </c>
-      <c r="M78" s="121">
+      <c r="M78" s="110">
         <v>0.28610210000000003</v>
       </c>
       <c r="N78" s="1">
@@ -18923,19 +18926,19 @@
       <c r="H79" s="35">
         <v>259000</v>
       </c>
-      <c r="I79" s="121">
+      <c r="I79" s="110">
         <v>0.41955433455433455</v>
       </c>
-      <c r="J79" s="121">
+      <c r="J79" s="110">
         <v>0.19832722832722832</v>
       </c>
-      <c r="K79" s="121">
+      <c r="K79" s="110">
         <v>0.32670482295482295</v>
       </c>
-      <c r="L79" s="121">
+      <c r="L79" s="110">
         <v>5.5413614163614164E-2</v>
       </c>
-      <c r="M79" s="121">
+      <c r="M79" s="110">
         <v>0.1599814</v>
       </c>
       <c r="N79" s="1">
@@ -19102,19 +19105,19 @@
       <c r="H80" s="35">
         <v>162000</v>
       </c>
-      <c r="I80" s="121">
+      <c r="I80" s="110">
         <v>0.39767958345403359</v>
       </c>
-      <c r="J80" s="121">
+      <c r="J80" s="110">
         <v>0.25085604355609037</v>
       </c>
-      <c r="K80" s="121">
+      <c r="K80" s="110">
         <v>0.27920761191701765</v>
       </c>
-      <c r="L80" s="121">
+      <c r="L80" s="110">
         <v>7.2256761072858403E-2</v>
       </c>
-      <c r="M80" s="121">
+      <c r="M80" s="110">
         <v>0.54360399999999998</v>
       </c>
       <c r="N80" s="1">
@@ -19281,19 +19284,19 @@
       <c r="H81" s="35">
         <v>162000</v>
       </c>
-      <c r="I81" s="121">
+      <c r="I81" s="110">
         <v>0.39767958345403359</v>
       </c>
-      <c r="J81" s="121">
+      <c r="J81" s="110">
         <v>0.25085604355609037</v>
       </c>
-      <c r="K81" s="121">
+      <c r="K81" s="110">
         <v>0.27920761191701765</v>
       </c>
-      <c r="L81" s="121">
+      <c r="L81" s="110">
         <v>7.2256761072858403E-2</v>
       </c>
-      <c r="M81" s="121">
+      <c r="M81" s="110">
         <v>0.32028760000000001</v>
       </c>
       <c r="N81" s="1">
@@ -19460,19 +19463,19 @@
       <c r="H82" s="35">
         <v>162000</v>
       </c>
-      <c r="I82" s="121">
+      <c r="I82" s="110">
         <v>0.39767958345403359</v>
       </c>
-      <c r="J82" s="121">
+      <c r="J82" s="110">
         <v>0.25085604355609037</v>
       </c>
-      <c r="K82" s="121">
+      <c r="K82" s="110">
         <v>0.27920761191701765</v>
       </c>
-      <c r="L82" s="121">
+      <c r="L82" s="110">
         <v>7.2256761072858403E-2</v>
       </c>
-      <c r="M82" s="121">
+      <c r="M82" s="110">
         <v>0.44838729999999999</v>
       </c>
       <c r="N82" s="1">
@@ -19652,420 +19655,420 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="116" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="119"/>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="119"/>
-      <c r="AU1" s="119"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="119"/>
-      <c r="AX1" s="119"/>
-      <c r="AY1" s="119"/>
-      <c r="AZ1" s="119"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="119"/>
-      <c r="BC1" s="119"/>
-      <c r="BD1" s="119"/>
-      <c r="BE1" s="119"/>
-      <c r="BF1" s="119"/>
-      <c r="BG1" s="119"/>
-      <c r="BH1" s="119"/>
-      <c r="BI1" s="119"/>
-      <c r="BJ1" s="119"/>
-      <c r="BK1" s="119"/>
-      <c r="BL1" s="119"/>
-      <c r="BM1" s="119"/>
-      <c r="BN1" s="119"/>
-      <c r="BO1" s="119"/>
-      <c r="BP1" s="119"/>
-      <c r="BQ1" s="119"/>
-      <c r="BR1" s="119"/>
-      <c r="BS1" s="119"/>
-      <c r="BT1" s="119"/>
-      <c r="BU1" s="119"/>
-      <c r="BV1" s="119"/>
-      <c r="BW1" s="119"/>
-      <c r="BX1" s="119"/>
-      <c r="BY1" s="119"/>
-      <c r="BZ1" s="119"/>
-      <c r="CA1" s="119"/>
-      <c r="CB1" s="119"/>
-      <c r="CC1" s="119"/>
-      <c r="CD1" s="119"/>
-      <c r="CE1" s="119"/>
-      <c r="CF1" s="119"/>
-      <c r="CG1" s="119"/>
-      <c r="CH1" s="119"/>
-      <c r="CI1" s="119"/>
-      <c r="CJ1" s="119"/>
-      <c r="CK1" s="119"/>
-      <c r="CL1" s="119"/>
-      <c r="CM1" s="119"/>
-      <c r="CN1" s="119"/>
-      <c r="CO1" s="119"/>
-      <c r="CP1" s="119"/>
-      <c r="CQ1" s="119"/>
-      <c r="CR1" s="119"/>
-      <c r="CS1" s="119"/>
-      <c r="CT1" s="119"/>
-      <c r="CU1" s="119"/>
-      <c r="CV1" s="119"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="116"/>
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="116"/>
+      <c r="AK1" s="116"/>
+      <c r="AL1" s="116"/>
+      <c r="AM1" s="116"/>
+      <c r="AN1" s="116"/>
+      <c r="AO1" s="116"/>
+      <c r="AP1" s="116"/>
+      <c r="AQ1" s="116"/>
+      <c r="AR1" s="116"/>
+      <c r="AS1" s="116"/>
+      <c r="AT1" s="116"/>
+      <c r="AU1" s="116"/>
+      <c r="AV1" s="116"/>
+      <c r="AW1" s="116"/>
+      <c r="AX1" s="116"/>
+      <c r="AY1" s="116"/>
+      <c r="AZ1" s="116"/>
+      <c r="BA1" s="116"/>
+      <c r="BB1" s="116"/>
+      <c r="BC1" s="116"/>
+      <c r="BD1" s="116"/>
+      <c r="BE1" s="116"/>
+      <c r="BF1" s="116"/>
+      <c r="BG1" s="116"/>
+      <c r="BH1" s="116"/>
+      <c r="BI1" s="116"/>
+      <c r="BJ1" s="116"/>
+      <c r="BK1" s="116"/>
+      <c r="BL1" s="116"/>
+      <c r="BM1" s="116"/>
+      <c r="BN1" s="116"/>
+      <c r="BO1" s="116"/>
+      <c r="BP1" s="116"/>
+      <c r="BQ1" s="116"/>
+      <c r="BR1" s="116"/>
+      <c r="BS1" s="116"/>
+      <c r="BT1" s="116"/>
+      <c r="BU1" s="116"/>
+      <c r="BV1" s="116"/>
+      <c r="BW1" s="116"/>
+      <c r="BX1" s="116"/>
+      <c r="BY1" s="116"/>
+      <c r="BZ1" s="116"/>
+      <c r="CA1" s="116"/>
+      <c r="CB1" s="116"/>
+      <c r="CC1" s="116"/>
+      <c r="CD1" s="116"/>
+      <c r="CE1" s="116"/>
+      <c r="CF1" s="116"/>
+      <c r="CG1" s="116"/>
+      <c r="CH1" s="116"/>
+      <c r="CI1" s="116"/>
+      <c r="CJ1" s="116"/>
+      <c r="CK1" s="116"/>
+      <c r="CL1" s="116"/>
+      <c r="CM1" s="116"/>
+      <c r="CN1" s="116"/>
+      <c r="CO1" s="116"/>
+      <c r="CP1" s="116"/>
+      <c r="CQ1" s="116"/>
+      <c r="CR1" s="116"/>
+      <c r="CS1" s="116"/>
+      <c r="CT1" s="116"/>
+      <c r="CU1" s="116"/>
+      <c r="CV1" s="116"/>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="117" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="120"/>
-      <c r="AJ2" s="120"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120"/>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="120"/>
-      <c r="AS2" s="120"/>
-      <c r="AT2" s="120"/>
-      <c r="AU2" s="120"/>
-      <c r="AV2" s="120"/>
-      <c r="AW2" s="120"/>
-      <c r="AX2" s="120"/>
-      <c r="AY2" s="120"/>
-      <c r="AZ2" s="120"/>
-      <c r="BA2" s="120"/>
-      <c r="BB2" s="120"/>
-      <c r="BC2" s="120"/>
-      <c r="BD2" s="120"/>
-      <c r="BE2" s="120"/>
-      <c r="BF2" s="120"/>
-      <c r="BG2" s="120"/>
-      <c r="BH2" s="120"/>
-      <c r="BI2" s="120"/>
-      <c r="BJ2" s="120"/>
-      <c r="BK2" s="120"/>
-      <c r="BL2" s="120"/>
-      <c r="BM2" s="120"/>
-      <c r="BN2" s="120"/>
-      <c r="BO2" s="120"/>
-      <c r="BP2" s="120"/>
-      <c r="BQ2" s="120"/>
-      <c r="BR2" s="120"/>
-      <c r="BS2" s="120"/>
-      <c r="BT2" s="120"/>
-      <c r="BU2" s="120"/>
-      <c r="BV2" s="120"/>
-      <c r="BW2" s="120"/>
-      <c r="BX2" s="120"/>
-      <c r="BY2" s="120"/>
-      <c r="BZ2" s="120"/>
-      <c r="CA2" s="120"/>
-      <c r="CB2" s="120"/>
-      <c r="CC2" s="120"/>
-      <c r="CD2" s="120"/>
-      <c r="CE2" s="120"/>
-      <c r="CF2" s="120"/>
-      <c r="CG2" s="120"/>
-      <c r="CH2" s="120"/>
-      <c r="CI2" s="120"/>
-      <c r="CJ2" s="120"/>
-      <c r="CK2" s="120"/>
-      <c r="CL2" s="120"/>
-      <c r="CM2" s="120"/>
-      <c r="CN2" s="120"/>
-      <c r="CO2" s="120"/>
-      <c r="CP2" s="120"/>
-      <c r="CQ2" s="120"/>
-      <c r="CR2" s="120"/>
-      <c r="CS2" s="120"/>
-      <c r="CT2" s="120"/>
-      <c r="CU2" s="120"/>
-      <c r="CV2" s="120"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="117"/>
+      <c r="AP2" s="117"/>
+      <c r="AQ2" s="117"/>
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="117"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="117"/>
+      <c r="AZ2" s="117"/>
+      <c r="BA2" s="117"/>
+      <c r="BB2" s="117"/>
+      <c r="BC2" s="117"/>
+      <c r="BD2" s="117"/>
+      <c r="BE2" s="117"/>
+      <c r="BF2" s="117"/>
+      <c r="BG2" s="117"/>
+      <c r="BH2" s="117"/>
+      <c r="BI2" s="117"/>
+      <c r="BJ2" s="117"/>
+      <c r="BK2" s="117"/>
+      <c r="BL2" s="117"/>
+      <c r="BM2" s="117"/>
+      <c r="BN2" s="117"/>
+      <c r="BO2" s="117"/>
+      <c r="BP2" s="117"/>
+      <c r="BQ2" s="117"/>
+      <c r="BR2" s="117"/>
+      <c r="BS2" s="117"/>
+      <c r="BT2" s="117"/>
+      <c r="BU2" s="117"/>
+      <c r="BV2" s="117"/>
+      <c r="BW2" s="117"/>
+      <c r="BX2" s="117"/>
+      <c r="BY2" s="117"/>
+      <c r="BZ2" s="117"/>
+      <c r="CA2" s="117"/>
+      <c r="CB2" s="117"/>
+      <c r="CC2" s="117"/>
+      <c r="CD2" s="117"/>
+      <c r="CE2" s="117"/>
+      <c r="CF2" s="117"/>
+      <c r="CG2" s="117"/>
+      <c r="CH2" s="117"/>
+      <c r="CI2" s="117"/>
+      <c r="CJ2" s="117"/>
+      <c r="CK2" s="117"/>
+      <c r="CL2" s="117"/>
+      <c r="CM2" s="117"/>
+      <c r="CN2" s="117"/>
+      <c r="CO2" s="117"/>
+      <c r="CP2" s="117"/>
+      <c r="CQ2" s="117"/>
+      <c r="CR2" s="117"/>
+      <c r="CS2" s="117"/>
+      <c r="CT2" s="117"/>
+      <c r="CU2" s="117"/>
+      <c r="CV2" s="117"/>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="120"/>
-      <c r="AL3" s="120"/>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="120"/>
-      <c r="AP3" s="120"/>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="120"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="120"/>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="120"/>
-      <c r="BA3" s="120"/>
-      <c r="BB3" s="120"/>
-      <c r="BC3" s="120"/>
-      <c r="BD3" s="120"/>
-      <c r="BE3" s="120"/>
-      <c r="BF3" s="120"/>
-      <c r="BG3" s="120"/>
-      <c r="BH3" s="120"/>
-      <c r="BI3" s="120"/>
-      <c r="BJ3" s="120"/>
-      <c r="BK3" s="120"/>
-      <c r="BL3" s="120"/>
-      <c r="BM3" s="120"/>
-      <c r="BN3" s="120"/>
-      <c r="BO3" s="120"/>
-      <c r="BP3" s="120"/>
-      <c r="BQ3" s="120"/>
-      <c r="BR3" s="120"/>
-      <c r="BS3" s="120"/>
-      <c r="BT3" s="120"/>
-      <c r="BU3" s="120"/>
-      <c r="BV3" s="120"/>
-      <c r="BW3" s="120"/>
-      <c r="BX3" s="120"/>
-      <c r="BY3" s="120"/>
-      <c r="BZ3" s="120"/>
-      <c r="CA3" s="120"/>
-      <c r="CB3" s="120"/>
-      <c r="CC3" s="120"/>
-      <c r="CD3" s="120"/>
-      <c r="CE3" s="120"/>
-      <c r="CF3" s="120"/>
-      <c r="CG3" s="120"/>
-      <c r="CH3" s="120"/>
-      <c r="CI3" s="120"/>
-      <c r="CJ3" s="120"/>
-      <c r="CK3" s="120"/>
-      <c r="CL3" s="120"/>
-      <c r="CM3" s="120"/>
-      <c r="CN3" s="120"/>
-      <c r="CO3" s="120"/>
-      <c r="CP3" s="120"/>
-      <c r="CQ3" s="120"/>
-      <c r="CR3" s="120"/>
-      <c r="CS3" s="120"/>
-      <c r="CT3" s="120"/>
-      <c r="CU3" s="120"/>
-      <c r="CV3" s="120"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="117"/>
+      <c r="AN3" s="117"/>
+      <c r="AO3" s="117"/>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="117"/>
+      <c r="AR3" s="117"/>
+      <c r="AS3" s="117"/>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="117"/>
+      <c r="AV3" s="117"/>
+      <c r="AW3" s="117"/>
+      <c r="AX3" s="117"/>
+      <c r="AY3" s="117"/>
+      <c r="AZ3" s="117"/>
+      <c r="BA3" s="117"/>
+      <c r="BB3" s="117"/>
+      <c r="BC3" s="117"/>
+      <c r="BD3" s="117"/>
+      <c r="BE3" s="117"/>
+      <c r="BF3" s="117"/>
+      <c r="BG3" s="117"/>
+      <c r="BH3" s="117"/>
+      <c r="BI3" s="117"/>
+      <c r="BJ3" s="117"/>
+      <c r="BK3" s="117"/>
+      <c r="BL3" s="117"/>
+      <c r="BM3" s="117"/>
+      <c r="BN3" s="117"/>
+      <c r="BO3" s="117"/>
+      <c r="BP3" s="117"/>
+      <c r="BQ3" s="117"/>
+      <c r="BR3" s="117"/>
+      <c r="BS3" s="117"/>
+      <c r="BT3" s="117"/>
+      <c r="BU3" s="117"/>
+      <c r="BV3" s="117"/>
+      <c r="BW3" s="117"/>
+      <c r="BX3" s="117"/>
+      <c r="BY3" s="117"/>
+      <c r="BZ3" s="117"/>
+      <c r="CA3" s="117"/>
+      <c r="CB3" s="117"/>
+      <c r="CC3" s="117"/>
+      <c r="CD3" s="117"/>
+      <c r="CE3" s="117"/>
+      <c r="CF3" s="117"/>
+      <c r="CG3" s="117"/>
+      <c r="CH3" s="117"/>
+      <c r="CI3" s="117"/>
+      <c r="CJ3" s="117"/>
+      <c r="CK3" s="117"/>
+      <c r="CL3" s="117"/>
+      <c r="CM3" s="117"/>
+      <c r="CN3" s="117"/>
+      <c r="CO3" s="117"/>
+      <c r="CP3" s="117"/>
+      <c r="CQ3" s="117"/>
+      <c r="CR3" s="117"/>
+      <c r="CS3" s="117"/>
+      <c r="CT3" s="117"/>
+      <c r="CU3" s="117"/>
+      <c r="CV3" s="117"/>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120"/>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="120"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="120"/>
-      <c r="AH4" s="120"/>
-      <c r="AI4" s="120"/>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
-      <c r="AL4" s="120"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="120"/>
-      <c r="AO4" s="120"/>
-      <c r="AP4" s="120"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120"/>
-      <c r="AS4" s="120"/>
-      <c r="AT4" s="120"/>
-      <c r="AU4" s="120"/>
-      <c r="AV4" s="120"/>
-      <c r="AW4" s="120"/>
-      <c r="AX4" s="120"/>
-      <c r="AY4" s="120"/>
-      <c r="AZ4" s="120"/>
-      <c r="BA4" s="120"/>
-      <c r="BB4" s="120"/>
-      <c r="BC4" s="120"/>
-      <c r="BD4" s="120"/>
-      <c r="BE4" s="120"/>
-      <c r="BF4" s="120"/>
-      <c r="BG4" s="120"/>
-      <c r="BH4" s="120"/>
-      <c r="BI4" s="120"/>
-      <c r="BJ4" s="120"/>
-      <c r="BK4" s="120"/>
-      <c r="BL4" s="120"/>
-      <c r="BM4" s="120"/>
-      <c r="BN4" s="120"/>
-      <c r="BO4" s="120"/>
-      <c r="BP4" s="120"/>
-      <c r="BQ4" s="120"/>
-      <c r="BR4" s="120"/>
-      <c r="BS4" s="120"/>
-      <c r="BT4" s="120"/>
-      <c r="BU4" s="120"/>
-      <c r="BV4" s="120"/>
-      <c r="BW4" s="120"/>
-      <c r="BX4" s="120"/>
-      <c r="BY4" s="120"/>
-      <c r="BZ4" s="120"/>
-      <c r="CA4" s="120"/>
-      <c r="CB4" s="120"/>
-      <c r="CC4" s="120"/>
-      <c r="CD4" s="120"/>
-      <c r="CE4" s="120"/>
-      <c r="CF4" s="120"/>
-      <c r="CG4" s="120"/>
-      <c r="CH4" s="120"/>
-      <c r="CI4" s="120"/>
-      <c r="CJ4" s="120"/>
-      <c r="CK4" s="120"/>
-      <c r="CL4" s="120"/>
-      <c r="CM4" s="120"/>
-      <c r="CN4" s="120"/>
-      <c r="CO4" s="120"/>
-      <c r="CP4" s="120"/>
-      <c r="CQ4" s="120"/>
-      <c r="CR4" s="120"/>
-      <c r="CS4" s="120"/>
-      <c r="CT4" s="120"/>
-      <c r="CU4" s="120"/>
-      <c r="CV4" s="120"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="117"/>
+      <c r="AZ4" s="117"/>
+      <c r="BA4" s="117"/>
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="117"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="117"/>
+      <c r="BG4" s="117"/>
+      <c r="BH4" s="117"/>
+      <c r="BI4" s="117"/>
+      <c r="BJ4" s="117"/>
+      <c r="BK4" s="117"/>
+      <c r="BL4" s="117"/>
+      <c r="BM4" s="117"/>
+      <c r="BN4" s="117"/>
+      <c r="BO4" s="117"/>
+      <c r="BP4" s="117"/>
+      <c r="BQ4" s="117"/>
+      <c r="BR4" s="117"/>
+      <c r="BS4" s="117"/>
+      <c r="BT4" s="117"/>
+      <c r="BU4" s="117"/>
+      <c r="BV4" s="117"/>
+      <c r="BW4" s="117"/>
+      <c r="BX4" s="117"/>
+      <c r="BY4" s="117"/>
+      <c r="BZ4" s="117"/>
+      <c r="CA4" s="117"/>
+      <c r="CB4" s="117"/>
+      <c r="CC4" s="117"/>
+      <c r="CD4" s="117"/>
+      <c r="CE4" s="117"/>
+      <c r="CF4" s="117"/>
+      <c r="CG4" s="117"/>
+      <c r="CH4" s="117"/>
+      <c r="CI4" s="117"/>
+      <c r="CJ4" s="117"/>
+      <c r="CK4" s="117"/>
+      <c r="CL4" s="117"/>
+      <c r="CM4" s="117"/>
+      <c r="CN4" s="117"/>
+      <c r="CO4" s="117"/>
+      <c r="CP4" s="117"/>
+      <c r="CQ4" s="117"/>
+      <c r="CR4" s="117"/>
+      <c r="CS4" s="117"/>
+      <c r="CT4" s="117"/>
+      <c r="CU4" s="117"/>
+      <c r="CV4" s="117"/>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
@@ -20541,730 +20544,730 @@
       </c>
     </row>
     <row r="20" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="115"/>
-      <c r="AC20" s="115"/>
-      <c r="AD20" s="115"/>
-      <c r="AE20" s="115"/>
-      <c r="AF20" s="115"/>
-      <c r="AG20" s="115"/>
-      <c r="AH20" s="115"/>
-      <c r="AI20" s="115"/>
-      <c r="AJ20" s="115"/>
-      <c r="AK20" s="115"/>
-      <c r="AL20" s="115"/>
-      <c r="AM20" s="115"/>
-      <c r="AN20" s="115"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="115"/>
-      <c r="AQ20" s="115"/>
-      <c r="AR20" s="115"/>
-      <c r="AS20" s="115"/>
-      <c r="AT20" s="115"/>
-      <c r="AU20" s="115"/>
-      <c r="AV20" s="115"/>
-      <c r="AW20" s="115"/>
-      <c r="AX20" s="115"/>
-      <c r="AY20" s="115"/>
-      <c r="AZ20" s="115"/>
-      <c r="BA20" s="115"/>
-      <c r="BB20" s="115"/>
-      <c r="BC20" s="115"/>
-      <c r="BD20" s="115"/>
-      <c r="BE20" s="115"/>
-      <c r="BF20" s="115"/>
-      <c r="BG20" s="115"/>
-      <c r="BH20" s="115"/>
-      <c r="BI20" s="115"/>
-      <c r="BJ20" s="115"/>
-      <c r="BK20" s="115"/>
-      <c r="BL20" s="115"/>
-      <c r="BM20" s="115"/>
-      <c r="BN20" s="115"/>
-      <c r="BO20" s="115"/>
-      <c r="BP20" s="115"/>
-      <c r="BQ20" s="115"/>
-      <c r="BR20" s="115"/>
-      <c r="BS20" s="115"/>
-      <c r="BT20" s="115"/>
-      <c r="BU20" s="115"/>
-      <c r="BV20" s="115"/>
-      <c r="BW20" s="115"/>
-      <c r="BX20" s="115"/>
-      <c r="BY20" s="115"/>
-      <c r="BZ20" s="115"/>
-      <c r="CA20" s="115"/>
-      <c r="CB20" s="115"/>
-      <c r="CC20" s="115"/>
-      <c r="CD20" s="115"/>
-      <c r="CE20" s="115"/>
-      <c r="CF20" s="115"/>
-      <c r="CG20" s="115"/>
-      <c r="CH20" s="115"/>
-      <c r="CI20" s="115"/>
-      <c r="CJ20" s="115"/>
-      <c r="CK20" s="115"/>
-      <c r="CL20" s="115"/>
-      <c r="CM20" s="115"/>
-      <c r="CN20" s="115"/>
-      <c r="CO20" s="115"/>
-      <c r="CP20" s="115"/>
-      <c r="CQ20" s="115"/>
-      <c r="CR20" s="115"/>
-      <c r="CS20" s="115"/>
-      <c r="CT20" s="115"/>
-      <c r="CU20" s="115"/>
-      <c r="CV20" s="115"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="121"/>
+      <c r="AK20" s="121"/>
+      <c r="AL20" s="121"/>
+      <c r="AM20" s="121"/>
+      <c r="AN20" s="121"/>
+      <c r="AO20" s="121"/>
+      <c r="AP20" s="121"/>
+      <c r="AQ20" s="121"/>
+      <c r="AR20" s="121"/>
+      <c r="AS20" s="121"/>
+      <c r="AT20" s="121"/>
+      <c r="AU20" s="121"/>
+      <c r="AV20" s="121"/>
+      <c r="AW20" s="121"/>
+      <c r="AX20" s="121"/>
+      <c r="AY20" s="121"/>
+      <c r="AZ20" s="121"/>
+      <c r="BA20" s="121"/>
+      <c r="BB20" s="121"/>
+      <c r="BC20" s="121"/>
+      <c r="BD20" s="121"/>
+      <c r="BE20" s="121"/>
+      <c r="BF20" s="121"/>
+      <c r="BG20" s="121"/>
+      <c r="BH20" s="121"/>
+      <c r="BI20" s="121"/>
+      <c r="BJ20" s="121"/>
+      <c r="BK20" s="121"/>
+      <c r="BL20" s="121"/>
+      <c r="BM20" s="121"/>
+      <c r="BN20" s="121"/>
+      <c r="BO20" s="121"/>
+      <c r="BP20" s="121"/>
+      <c r="BQ20" s="121"/>
+      <c r="BR20" s="121"/>
+      <c r="BS20" s="121"/>
+      <c r="BT20" s="121"/>
+      <c r="BU20" s="121"/>
+      <c r="BV20" s="121"/>
+      <c r="BW20" s="121"/>
+      <c r="BX20" s="121"/>
+      <c r="BY20" s="121"/>
+      <c r="BZ20" s="121"/>
+      <c r="CA20" s="121"/>
+      <c r="CB20" s="121"/>
+      <c r="CC20" s="121"/>
+      <c r="CD20" s="121"/>
+      <c r="CE20" s="121"/>
+      <c r="CF20" s="121"/>
+      <c r="CG20" s="121"/>
+      <c r="CH20" s="121"/>
+      <c r="CI20" s="121"/>
+      <c r="CJ20" s="121"/>
+      <c r="CK20" s="121"/>
+      <c r="CL20" s="121"/>
+      <c r="CM20" s="121"/>
+      <c r="CN20" s="121"/>
+      <c r="CO20" s="121"/>
+      <c r="CP20" s="121"/>
+      <c r="CQ20" s="121"/>
+      <c r="CR20" s="121"/>
+      <c r="CS20" s="121"/>
+      <c r="CT20" s="121"/>
+      <c r="CU20" s="121"/>
+      <c r="CV20" s="121"/>
     </row>
     <row r="21" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="116"/>
-      <c r="AE21" s="116"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="116"/>
-      <c r="AJ21" s="116"/>
-      <c r="AK21" s="116"/>
-      <c r="AL21" s="116"/>
-      <c r="AM21" s="116"/>
-      <c r="AN21" s="116"/>
-      <c r="AO21" s="116"/>
-      <c r="AP21" s="116"/>
-      <c r="AQ21" s="116"/>
-      <c r="AR21" s="116"/>
-      <c r="AS21" s="116"/>
-      <c r="AT21" s="116"/>
-      <c r="AU21" s="116"/>
-      <c r="AV21" s="116"/>
-      <c r="AW21" s="116"/>
-      <c r="AX21" s="116"/>
-      <c r="AY21" s="116"/>
-      <c r="AZ21" s="116"/>
-      <c r="BA21" s="116"/>
-      <c r="BB21" s="116"/>
-      <c r="BC21" s="116"/>
-      <c r="BD21" s="116"/>
-      <c r="BE21" s="116"/>
-      <c r="BF21" s="116"/>
-      <c r="BG21" s="116"/>
-      <c r="BH21" s="116"/>
-      <c r="BI21" s="116"/>
-      <c r="BJ21" s="116"/>
-      <c r="BK21" s="116"/>
-      <c r="BL21" s="116"/>
-      <c r="BM21" s="116"/>
-      <c r="BN21" s="116"/>
-      <c r="BO21" s="116"/>
-      <c r="BP21" s="116"/>
-      <c r="BQ21" s="116"/>
-      <c r="BR21" s="116"/>
-      <c r="BS21" s="116"/>
-      <c r="BT21" s="116"/>
-      <c r="BU21" s="116"/>
-      <c r="BV21" s="116"/>
-      <c r="BW21" s="116"/>
-      <c r="BX21" s="116"/>
-      <c r="BY21" s="116"/>
-      <c r="BZ21" s="116"/>
-      <c r="CA21" s="116"/>
-      <c r="CB21" s="116"/>
-      <c r="CC21" s="116"/>
-      <c r="CD21" s="116"/>
-      <c r="CE21" s="116"/>
-      <c r="CF21" s="116"/>
-      <c r="CG21" s="116"/>
-      <c r="CH21" s="116"/>
-      <c r="CI21" s="116"/>
-      <c r="CJ21" s="116"/>
-      <c r="CK21" s="116"/>
-      <c r="CL21" s="116"/>
-      <c r="CM21" s="116"/>
-      <c r="CN21" s="116"/>
-      <c r="CO21" s="116"/>
-      <c r="CP21" s="116"/>
-      <c r="CQ21" s="116"/>
-      <c r="CR21" s="116"/>
-      <c r="CS21" s="116"/>
-      <c r="CT21" s="116"/>
-      <c r="CU21" s="116"/>
-      <c r="CV21" s="116"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="120"/>
+      <c r="AH21" s="120"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="120"/>
+      <c r="AO21" s="120"/>
+      <c r="AP21" s="120"/>
+      <c r="AQ21" s="120"/>
+      <c r="AR21" s="120"/>
+      <c r="AS21" s="120"/>
+      <c r="AT21" s="120"/>
+      <c r="AU21" s="120"/>
+      <c r="AV21" s="120"/>
+      <c r="AW21" s="120"/>
+      <c r="AX21" s="120"/>
+      <c r="AY21" s="120"/>
+      <c r="AZ21" s="120"/>
+      <c r="BA21" s="120"/>
+      <c r="BB21" s="120"/>
+      <c r="BC21" s="120"/>
+      <c r="BD21" s="120"/>
+      <c r="BE21" s="120"/>
+      <c r="BF21" s="120"/>
+      <c r="BG21" s="120"/>
+      <c r="BH21" s="120"/>
+      <c r="BI21" s="120"/>
+      <c r="BJ21" s="120"/>
+      <c r="BK21" s="120"/>
+      <c r="BL21" s="120"/>
+      <c r="BM21" s="120"/>
+      <c r="BN21" s="120"/>
+      <c r="BO21" s="120"/>
+      <c r="BP21" s="120"/>
+      <c r="BQ21" s="120"/>
+      <c r="BR21" s="120"/>
+      <c r="BS21" s="120"/>
+      <c r="BT21" s="120"/>
+      <c r="BU21" s="120"/>
+      <c r="BV21" s="120"/>
+      <c r="BW21" s="120"/>
+      <c r="BX21" s="120"/>
+      <c r="BY21" s="120"/>
+      <c r="BZ21" s="120"/>
+      <c r="CA21" s="120"/>
+      <c r="CB21" s="120"/>
+      <c r="CC21" s="120"/>
+      <c r="CD21" s="120"/>
+      <c r="CE21" s="120"/>
+      <c r="CF21" s="120"/>
+      <c r="CG21" s="120"/>
+      <c r="CH21" s="120"/>
+      <c r="CI21" s="120"/>
+      <c r="CJ21" s="120"/>
+      <c r="CK21" s="120"/>
+      <c r="CL21" s="120"/>
+      <c r="CM21" s="120"/>
+      <c r="CN21" s="120"/>
+      <c r="CO21" s="120"/>
+      <c r="CP21" s="120"/>
+      <c r="CQ21" s="120"/>
+      <c r="CR21" s="120"/>
+      <c r="CS21" s="120"/>
+      <c r="CT21" s="120"/>
+      <c r="CU21" s="120"/>
+      <c r="CV21" s="120"/>
     </row>
     <row r="22" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="119" t="s">
         <v>295</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="117"/>
-      <c r="AP22" s="117"/>
-      <c r="AQ22" s="117"/>
-      <c r="AR22" s="117"/>
-      <c r="AS22" s="117"/>
-      <c r="AT22" s="117"/>
-      <c r="AU22" s="117"/>
-      <c r="AV22" s="117"/>
-      <c r="AW22" s="117"/>
-      <c r="AX22" s="117"/>
-      <c r="AY22" s="117"/>
-      <c r="AZ22" s="117"/>
-      <c r="BA22" s="117"/>
-      <c r="BB22" s="117"/>
-      <c r="BC22" s="117"/>
-      <c r="BD22" s="117"/>
-      <c r="BE22" s="117"/>
-      <c r="BF22" s="117"/>
-      <c r="BG22" s="117"/>
-      <c r="BH22" s="117"/>
-      <c r="BI22" s="117"/>
-      <c r="BJ22" s="117"/>
-      <c r="BK22" s="117"/>
-      <c r="BL22" s="117"/>
-      <c r="BM22" s="117"/>
-      <c r="BN22" s="117"/>
-      <c r="BO22" s="117"/>
-      <c r="BP22" s="117"/>
-      <c r="BQ22" s="117"/>
-      <c r="BR22" s="117"/>
-      <c r="BS22" s="117"/>
-      <c r="BT22" s="117"/>
-      <c r="BU22" s="117"/>
-      <c r="BV22" s="117"/>
-      <c r="BW22" s="117"/>
-      <c r="BX22" s="117"/>
-      <c r="BY22" s="117"/>
-      <c r="BZ22" s="117"/>
-      <c r="CA22" s="117"/>
-      <c r="CB22" s="117"/>
-      <c r="CC22" s="117"/>
-      <c r="CD22" s="117"/>
-      <c r="CE22" s="117"/>
-      <c r="CF22" s="117"/>
-      <c r="CG22" s="117"/>
-      <c r="CH22" s="117"/>
-      <c r="CI22" s="117"/>
-      <c r="CJ22" s="117"/>
-      <c r="CK22" s="117"/>
-      <c r="CL22" s="117"/>
-      <c r="CM22" s="117"/>
-      <c r="CN22" s="117"/>
-      <c r="CO22" s="117"/>
-      <c r="CP22" s="117"/>
-      <c r="CQ22" s="117"/>
-      <c r="CR22" s="117"/>
-      <c r="CS22" s="117"/>
-      <c r="CT22" s="117"/>
-      <c r="CU22" s="117"/>
-      <c r="CV22" s="117"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="119"/>
+      <c r="AH22" s="119"/>
+      <c r="AI22" s="119"/>
+      <c r="AJ22" s="119"/>
+      <c r="AK22" s="119"/>
+      <c r="AL22" s="119"/>
+      <c r="AM22" s="119"/>
+      <c r="AN22" s="119"/>
+      <c r="AO22" s="119"/>
+      <c r="AP22" s="119"/>
+      <c r="AQ22" s="119"/>
+      <c r="AR22" s="119"/>
+      <c r="AS22" s="119"/>
+      <c r="AT22" s="119"/>
+      <c r="AU22" s="119"/>
+      <c r="AV22" s="119"/>
+      <c r="AW22" s="119"/>
+      <c r="AX22" s="119"/>
+      <c r="AY22" s="119"/>
+      <c r="AZ22" s="119"/>
+      <c r="BA22" s="119"/>
+      <c r="BB22" s="119"/>
+      <c r="BC22" s="119"/>
+      <c r="BD22" s="119"/>
+      <c r="BE22" s="119"/>
+      <c r="BF22" s="119"/>
+      <c r="BG22" s="119"/>
+      <c r="BH22" s="119"/>
+      <c r="BI22" s="119"/>
+      <c r="BJ22" s="119"/>
+      <c r="BK22" s="119"/>
+      <c r="BL22" s="119"/>
+      <c r="BM22" s="119"/>
+      <c r="BN22" s="119"/>
+      <c r="BO22" s="119"/>
+      <c r="BP22" s="119"/>
+      <c r="BQ22" s="119"/>
+      <c r="BR22" s="119"/>
+      <c r="BS22" s="119"/>
+      <c r="BT22" s="119"/>
+      <c r="BU22" s="119"/>
+      <c r="BV22" s="119"/>
+      <c r="BW22" s="119"/>
+      <c r="BX22" s="119"/>
+      <c r="BY22" s="119"/>
+      <c r="BZ22" s="119"/>
+      <c r="CA22" s="119"/>
+      <c r="CB22" s="119"/>
+      <c r="CC22" s="119"/>
+      <c r="CD22" s="119"/>
+      <c r="CE22" s="119"/>
+      <c r="CF22" s="119"/>
+      <c r="CG22" s="119"/>
+      <c r="CH22" s="119"/>
+      <c r="CI22" s="119"/>
+      <c r="CJ22" s="119"/>
+      <c r="CK22" s="119"/>
+      <c r="CL22" s="119"/>
+      <c r="CM22" s="119"/>
+      <c r="CN22" s="119"/>
+      <c r="CO22" s="119"/>
+      <c r="CP22" s="119"/>
+      <c r="CQ22" s="119"/>
+      <c r="CR22" s="119"/>
+      <c r="CS22" s="119"/>
+      <c r="CT22" s="119"/>
+      <c r="CU22" s="119"/>
+      <c r="CV22" s="119"/>
     </row>
     <row r="23" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="116"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="116"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="116"/>
-      <c r="AJ23" s="116"/>
-      <c r="AK23" s="116"/>
-      <c r="AL23" s="116"/>
-      <c r="AM23" s="116"/>
-      <c r="AN23" s="116"/>
-      <c r="AO23" s="116"/>
-      <c r="AP23" s="116"/>
-      <c r="AQ23" s="116"/>
-      <c r="AR23" s="116"/>
-      <c r="AS23" s="116"/>
-      <c r="AT23" s="116"/>
-      <c r="AU23" s="116"/>
-      <c r="AV23" s="116"/>
-      <c r="AW23" s="116"/>
-      <c r="AX23" s="116"/>
-      <c r="AY23" s="116"/>
-      <c r="AZ23" s="116"/>
-      <c r="BA23" s="116"/>
-      <c r="BB23" s="116"/>
-      <c r="BC23" s="116"/>
-      <c r="BD23" s="116"/>
-      <c r="BE23" s="116"/>
-      <c r="BF23" s="116"/>
-      <c r="BG23" s="116"/>
-      <c r="BH23" s="116"/>
-      <c r="BI23" s="116"/>
-      <c r="BJ23" s="116"/>
-      <c r="BK23" s="116"/>
-      <c r="BL23" s="116"/>
-      <c r="BM23" s="116"/>
-      <c r="BN23" s="116"/>
-      <c r="BO23" s="116"/>
-      <c r="BP23" s="116"/>
-      <c r="BQ23" s="116"/>
-      <c r="BR23" s="116"/>
-      <c r="BS23" s="116"/>
-      <c r="BT23" s="116"/>
-      <c r="BU23" s="116"/>
-      <c r="BV23" s="116"/>
-      <c r="BW23" s="116"/>
-      <c r="BX23" s="116"/>
-      <c r="BY23" s="116"/>
-      <c r="BZ23" s="116"/>
-      <c r="CA23" s="116"/>
-      <c r="CB23" s="116"/>
-      <c r="CC23" s="116"/>
-      <c r="CD23" s="116"/>
-      <c r="CE23" s="116"/>
-      <c r="CF23" s="116"/>
-      <c r="CG23" s="116"/>
-      <c r="CH23" s="116"/>
-      <c r="CI23" s="116"/>
-      <c r="CJ23" s="116"/>
-      <c r="CK23" s="116"/>
-      <c r="CL23" s="116"/>
-      <c r="CM23" s="116"/>
-      <c r="CN23" s="116"/>
-      <c r="CO23" s="116"/>
-      <c r="CP23" s="116"/>
-      <c r="CQ23" s="116"/>
-      <c r="CR23" s="116"/>
-      <c r="CS23" s="116"/>
-      <c r="CT23" s="116"/>
-      <c r="CU23" s="116"/>
-      <c r="CV23" s="116"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="120"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="120"/>
+      <c r="AH23" s="120"/>
+      <c r="AI23" s="120"/>
+      <c r="AJ23" s="120"/>
+      <c r="AK23" s="120"/>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="120"/>
+      <c r="AN23" s="120"/>
+      <c r="AO23" s="120"/>
+      <c r="AP23" s="120"/>
+      <c r="AQ23" s="120"/>
+      <c r="AR23" s="120"/>
+      <c r="AS23" s="120"/>
+      <c r="AT23" s="120"/>
+      <c r="AU23" s="120"/>
+      <c r="AV23" s="120"/>
+      <c r="AW23" s="120"/>
+      <c r="AX23" s="120"/>
+      <c r="AY23" s="120"/>
+      <c r="AZ23" s="120"/>
+      <c r="BA23" s="120"/>
+      <c r="BB23" s="120"/>
+      <c r="BC23" s="120"/>
+      <c r="BD23" s="120"/>
+      <c r="BE23" s="120"/>
+      <c r="BF23" s="120"/>
+      <c r="BG23" s="120"/>
+      <c r="BH23" s="120"/>
+      <c r="BI23" s="120"/>
+      <c r="BJ23" s="120"/>
+      <c r="BK23" s="120"/>
+      <c r="BL23" s="120"/>
+      <c r="BM23" s="120"/>
+      <c r="BN23" s="120"/>
+      <c r="BO23" s="120"/>
+      <c r="BP23" s="120"/>
+      <c r="BQ23" s="120"/>
+      <c r="BR23" s="120"/>
+      <c r="BS23" s="120"/>
+      <c r="BT23" s="120"/>
+      <c r="BU23" s="120"/>
+      <c r="BV23" s="120"/>
+      <c r="BW23" s="120"/>
+      <c r="BX23" s="120"/>
+      <c r="BY23" s="120"/>
+      <c r="BZ23" s="120"/>
+      <c r="CA23" s="120"/>
+      <c r="CB23" s="120"/>
+      <c r="CC23" s="120"/>
+      <c r="CD23" s="120"/>
+      <c r="CE23" s="120"/>
+      <c r="CF23" s="120"/>
+      <c r="CG23" s="120"/>
+      <c r="CH23" s="120"/>
+      <c r="CI23" s="120"/>
+      <c r="CJ23" s="120"/>
+      <c r="CK23" s="120"/>
+      <c r="CL23" s="120"/>
+      <c r="CM23" s="120"/>
+      <c r="CN23" s="120"/>
+      <c r="CO23" s="120"/>
+      <c r="CP23" s="120"/>
+      <c r="CQ23" s="120"/>
+      <c r="CR23" s="120"/>
+      <c r="CS23" s="120"/>
+      <c r="CT23" s="120"/>
+      <c r="CU23" s="120"/>
+      <c r="CV23" s="120"/>
     </row>
     <row r="24" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="119" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="117"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="117"/>
-      <c r="AO24" s="117"/>
-      <c r="AP24" s="117"/>
-      <c r="AQ24" s="117"/>
-      <c r="AR24" s="117"/>
-      <c r="AS24" s="117"/>
-      <c r="AT24" s="117"/>
-      <c r="AU24" s="117"/>
-      <c r="AV24" s="117"/>
-      <c r="AW24" s="117"/>
-      <c r="AX24" s="117"/>
-      <c r="AY24" s="117"/>
-      <c r="AZ24" s="117"/>
-      <c r="BA24" s="117"/>
-      <c r="BB24" s="117"/>
-      <c r="BC24" s="117"/>
-      <c r="BD24" s="117"/>
-      <c r="BE24" s="117"/>
-      <c r="BF24" s="117"/>
-      <c r="BG24" s="117"/>
-      <c r="BH24" s="117"/>
-      <c r="BI24" s="117"/>
-      <c r="BJ24" s="117"/>
-      <c r="BK24" s="117"/>
-      <c r="BL24" s="117"/>
-      <c r="BM24" s="117"/>
-      <c r="BN24" s="117"/>
-      <c r="BO24" s="117"/>
-      <c r="BP24" s="117"/>
-      <c r="BQ24" s="117"/>
-      <c r="BR24" s="117"/>
-      <c r="BS24" s="117"/>
-      <c r="BT24" s="117"/>
-      <c r="BU24" s="117"/>
-      <c r="BV24" s="117"/>
-      <c r="BW24" s="117"/>
-      <c r="BX24" s="117"/>
-      <c r="BY24" s="117"/>
-      <c r="BZ24" s="117"/>
-      <c r="CA24" s="117"/>
-      <c r="CB24" s="117"/>
-      <c r="CC24" s="117"/>
-      <c r="CD24" s="117"/>
-      <c r="CE24" s="117"/>
-      <c r="CF24" s="117"/>
-      <c r="CG24" s="117"/>
-      <c r="CH24" s="117"/>
-      <c r="CI24" s="117"/>
-      <c r="CJ24" s="117"/>
-      <c r="CK24" s="117"/>
-      <c r="CL24" s="117"/>
-      <c r="CM24" s="117"/>
-      <c r="CN24" s="117"/>
-      <c r="CO24" s="117"/>
-      <c r="CP24" s="117"/>
-      <c r="CQ24" s="117"/>
-      <c r="CR24" s="117"/>
-      <c r="CS24" s="117"/>
-      <c r="CT24" s="117"/>
-      <c r="CU24" s="117"/>
-      <c r="CV24" s="117"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="119"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="119"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="119"/>
+      <c r="AE24" s="119"/>
+      <c r="AF24" s="119"/>
+      <c r="AG24" s="119"/>
+      <c r="AH24" s="119"/>
+      <c r="AI24" s="119"/>
+      <c r="AJ24" s="119"/>
+      <c r="AK24" s="119"/>
+      <c r="AL24" s="119"/>
+      <c r="AM24" s="119"/>
+      <c r="AN24" s="119"/>
+      <c r="AO24" s="119"/>
+      <c r="AP24" s="119"/>
+      <c r="AQ24" s="119"/>
+      <c r="AR24" s="119"/>
+      <c r="AS24" s="119"/>
+      <c r="AT24" s="119"/>
+      <c r="AU24" s="119"/>
+      <c r="AV24" s="119"/>
+      <c r="AW24" s="119"/>
+      <c r="AX24" s="119"/>
+      <c r="AY24" s="119"/>
+      <c r="AZ24" s="119"/>
+      <c r="BA24" s="119"/>
+      <c r="BB24" s="119"/>
+      <c r="BC24" s="119"/>
+      <c r="BD24" s="119"/>
+      <c r="BE24" s="119"/>
+      <c r="BF24" s="119"/>
+      <c r="BG24" s="119"/>
+      <c r="BH24" s="119"/>
+      <c r="BI24" s="119"/>
+      <c r="BJ24" s="119"/>
+      <c r="BK24" s="119"/>
+      <c r="BL24" s="119"/>
+      <c r="BM24" s="119"/>
+      <c r="BN24" s="119"/>
+      <c r="BO24" s="119"/>
+      <c r="BP24" s="119"/>
+      <c r="BQ24" s="119"/>
+      <c r="BR24" s="119"/>
+      <c r="BS24" s="119"/>
+      <c r="BT24" s="119"/>
+      <c r="BU24" s="119"/>
+      <c r="BV24" s="119"/>
+      <c r="BW24" s="119"/>
+      <c r="BX24" s="119"/>
+      <c r="BY24" s="119"/>
+      <c r="BZ24" s="119"/>
+      <c r="CA24" s="119"/>
+      <c r="CB24" s="119"/>
+      <c r="CC24" s="119"/>
+      <c r="CD24" s="119"/>
+      <c r="CE24" s="119"/>
+      <c r="CF24" s="119"/>
+      <c r="CG24" s="119"/>
+      <c r="CH24" s="119"/>
+      <c r="CI24" s="119"/>
+      <c r="CJ24" s="119"/>
+      <c r="CK24" s="119"/>
+      <c r="CL24" s="119"/>
+      <c r="CM24" s="119"/>
+      <c r="CN24" s="119"/>
+      <c r="CO24" s="119"/>
+      <c r="CP24" s="119"/>
+      <c r="CQ24" s="119"/>
+      <c r="CR24" s="119"/>
+      <c r="CS24" s="119"/>
+      <c r="CT24" s="119"/>
+      <c r="CU24" s="119"/>
+      <c r="CV24" s="119"/>
     </row>
     <row r="25" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="119" t="s">
         <v>298</v>
       </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="117"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="117"/>
-      <c r="AO25" s="117"/>
-      <c r="AP25" s="117"/>
-      <c r="AQ25" s="117"/>
-      <c r="AR25" s="117"/>
-      <c r="AS25" s="117"/>
-      <c r="AT25" s="117"/>
-      <c r="AU25" s="117"/>
-      <c r="AV25" s="117"/>
-      <c r="AW25" s="117"/>
-      <c r="AX25" s="117"/>
-      <c r="AY25" s="117"/>
-      <c r="AZ25" s="117"/>
-      <c r="BA25" s="117"/>
-      <c r="BB25" s="117"/>
-      <c r="BC25" s="117"/>
-      <c r="BD25" s="117"/>
-      <c r="BE25" s="117"/>
-      <c r="BF25" s="117"/>
-      <c r="BG25" s="117"/>
-      <c r="BH25" s="117"/>
-      <c r="BI25" s="117"/>
-      <c r="BJ25" s="117"/>
-      <c r="BK25" s="117"/>
-      <c r="BL25" s="117"/>
-      <c r="BM25" s="117"/>
-      <c r="BN25" s="117"/>
-      <c r="BO25" s="117"/>
-      <c r="BP25" s="117"/>
-      <c r="BQ25" s="117"/>
-      <c r="BR25" s="117"/>
-      <c r="BS25" s="117"/>
-      <c r="BT25" s="117"/>
-      <c r="BU25" s="117"/>
-      <c r="BV25" s="117"/>
-      <c r="BW25" s="117"/>
-      <c r="BX25" s="117"/>
-      <c r="BY25" s="117"/>
-      <c r="BZ25" s="117"/>
-      <c r="CA25" s="117"/>
-      <c r="CB25" s="117"/>
-      <c r="CC25" s="117"/>
-      <c r="CD25" s="117"/>
-      <c r="CE25" s="117"/>
-      <c r="CF25" s="117"/>
-      <c r="CG25" s="117"/>
-      <c r="CH25" s="117"/>
-      <c r="CI25" s="117"/>
-      <c r="CJ25" s="117"/>
-      <c r="CK25" s="117"/>
-      <c r="CL25" s="117"/>
-      <c r="CM25" s="117"/>
-      <c r="CN25" s="117"/>
-      <c r="CO25" s="117"/>
-      <c r="CP25" s="117"/>
-      <c r="CQ25" s="117"/>
-      <c r="CR25" s="117"/>
-      <c r="CS25" s="117"/>
-      <c r="CT25" s="117"/>
-      <c r="CU25" s="117"/>
-      <c r="CV25" s="117"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="119"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="119"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="119"/>
+      <c r="AF25" s="119"/>
+      <c r="AG25" s="119"/>
+      <c r="AH25" s="119"/>
+      <c r="AI25" s="119"/>
+      <c r="AJ25" s="119"/>
+      <c r="AK25" s="119"/>
+      <c r="AL25" s="119"/>
+      <c r="AM25" s="119"/>
+      <c r="AN25" s="119"/>
+      <c r="AO25" s="119"/>
+      <c r="AP25" s="119"/>
+      <c r="AQ25" s="119"/>
+      <c r="AR25" s="119"/>
+      <c r="AS25" s="119"/>
+      <c r="AT25" s="119"/>
+      <c r="AU25" s="119"/>
+      <c r="AV25" s="119"/>
+      <c r="AW25" s="119"/>
+      <c r="AX25" s="119"/>
+      <c r="AY25" s="119"/>
+      <c r="AZ25" s="119"/>
+      <c r="BA25" s="119"/>
+      <c r="BB25" s="119"/>
+      <c r="BC25" s="119"/>
+      <c r="BD25" s="119"/>
+      <c r="BE25" s="119"/>
+      <c r="BF25" s="119"/>
+      <c r="BG25" s="119"/>
+      <c r="BH25" s="119"/>
+      <c r="BI25" s="119"/>
+      <c r="BJ25" s="119"/>
+      <c r="BK25" s="119"/>
+      <c r="BL25" s="119"/>
+      <c r="BM25" s="119"/>
+      <c r="BN25" s="119"/>
+      <c r="BO25" s="119"/>
+      <c r="BP25" s="119"/>
+      <c r="BQ25" s="119"/>
+      <c r="BR25" s="119"/>
+      <c r="BS25" s="119"/>
+      <c r="BT25" s="119"/>
+      <c r="BU25" s="119"/>
+      <c r="BV25" s="119"/>
+      <c r="BW25" s="119"/>
+      <c r="BX25" s="119"/>
+      <c r="BY25" s="119"/>
+      <c r="BZ25" s="119"/>
+      <c r="CA25" s="119"/>
+      <c r="CB25" s="119"/>
+      <c r="CC25" s="119"/>
+      <c r="CD25" s="119"/>
+      <c r="CE25" s="119"/>
+      <c r="CF25" s="119"/>
+      <c r="CG25" s="119"/>
+      <c r="CH25" s="119"/>
+      <c r="CI25" s="119"/>
+      <c r="CJ25" s="119"/>
+      <c r="CK25" s="119"/>
+      <c r="CL25" s="119"/>
+      <c r="CM25" s="119"/>
+      <c r="CN25" s="119"/>
+      <c r="CO25" s="119"/>
+      <c r="CP25" s="119"/>
+      <c r="CQ25" s="119"/>
+      <c r="CR25" s="119"/>
+      <c r="CS25" s="119"/>
+      <c r="CT25" s="119"/>
+      <c r="CU25" s="119"/>
+      <c r="CV25" s="119"/>
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="120" t="s">
         <v>299</v>
       </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="116"/>
-      <c r="U26" s="116"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="116"/>
-      <c r="AB26" s="116"/>
-      <c r="AC26" s="116"/>
-      <c r="AD26" s="116"/>
-      <c r="AE26" s="116"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="116"/>
-      <c r="AJ26" s="116"/>
-      <c r="AK26" s="116"/>
-      <c r="AL26" s="116"/>
-      <c r="AM26" s="116"/>
-      <c r="AN26" s="116"/>
-      <c r="AO26" s="116"/>
-      <c r="AP26" s="116"/>
-      <c r="AQ26" s="116"/>
-      <c r="AR26" s="116"/>
-      <c r="AS26" s="116"/>
-      <c r="AT26" s="116"/>
-      <c r="AU26" s="116"/>
-      <c r="AV26" s="116"/>
-      <c r="AW26" s="116"/>
-      <c r="AX26" s="116"/>
-      <c r="AY26" s="116"/>
-      <c r="AZ26" s="116"/>
-      <c r="BA26" s="116"/>
-      <c r="BB26" s="116"/>
-      <c r="BC26" s="116"/>
-      <c r="BD26" s="116"/>
-      <c r="BE26" s="116"/>
-      <c r="BF26" s="116"/>
-      <c r="BG26" s="116"/>
-      <c r="BH26" s="116"/>
-      <c r="BI26" s="116"/>
-      <c r="BJ26" s="116"/>
-      <c r="BK26" s="116"/>
-      <c r="BL26" s="116"/>
-      <c r="BM26" s="116"/>
-      <c r="BN26" s="116"/>
-      <c r="BO26" s="116"/>
-      <c r="BP26" s="116"/>
-      <c r="BQ26" s="116"/>
-      <c r="BR26" s="116"/>
-      <c r="BS26" s="116"/>
-      <c r="BT26" s="116"/>
-      <c r="BU26" s="116"/>
-      <c r="BV26" s="116"/>
-      <c r="BW26" s="116"/>
-      <c r="BX26" s="116"/>
-      <c r="BY26" s="116"/>
-      <c r="BZ26" s="116"/>
-      <c r="CA26" s="116"/>
-      <c r="CB26" s="116"/>
-      <c r="CC26" s="116"/>
-      <c r="CD26" s="116"/>
-      <c r="CE26" s="116"/>
-      <c r="CF26" s="116"/>
-      <c r="CG26" s="116"/>
-      <c r="CH26" s="116"/>
-      <c r="CI26" s="116"/>
-      <c r="CJ26" s="116"/>
-      <c r="CK26" s="116"/>
-      <c r="CL26" s="116"/>
-      <c r="CM26" s="116"/>
-      <c r="CN26" s="116"/>
-      <c r="CO26" s="116"/>
-      <c r="CP26" s="116"/>
-      <c r="CQ26" s="116"/>
-      <c r="CR26" s="116"/>
-      <c r="CS26" s="116"/>
-      <c r="CT26" s="116"/>
-      <c r="CU26" s="116"/>
-      <c r="CV26" s="116"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="120"/>
+      <c r="AH26" s="120"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="120"/>
+      <c r="AK26" s="120"/>
+      <c r="AL26" s="120"/>
+      <c r="AM26" s="120"/>
+      <c r="AN26" s="120"/>
+      <c r="AO26" s="120"/>
+      <c r="AP26" s="120"/>
+      <c r="AQ26" s="120"/>
+      <c r="AR26" s="120"/>
+      <c r="AS26" s="120"/>
+      <c r="AT26" s="120"/>
+      <c r="AU26" s="120"/>
+      <c r="AV26" s="120"/>
+      <c r="AW26" s="120"/>
+      <c r="AX26" s="120"/>
+      <c r="AY26" s="120"/>
+      <c r="AZ26" s="120"/>
+      <c r="BA26" s="120"/>
+      <c r="BB26" s="120"/>
+      <c r="BC26" s="120"/>
+      <c r="BD26" s="120"/>
+      <c r="BE26" s="120"/>
+      <c r="BF26" s="120"/>
+      <c r="BG26" s="120"/>
+      <c r="BH26" s="120"/>
+      <c r="BI26" s="120"/>
+      <c r="BJ26" s="120"/>
+      <c r="BK26" s="120"/>
+      <c r="BL26" s="120"/>
+      <c r="BM26" s="120"/>
+      <c r="BN26" s="120"/>
+      <c r="BO26" s="120"/>
+      <c r="BP26" s="120"/>
+      <c r="BQ26" s="120"/>
+      <c r="BR26" s="120"/>
+      <c r="BS26" s="120"/>
+      <c r="BT26" s="120"/>
+      <c r="BU26" s="120"/>
+      <c r="BV26" s="120"/>
+      <c r="BW26" s="120"/>
+      <c r="BX26" s="120"/>
+      <c r="BY26" s="120"/>
+      <c r="BZ26" s="120"/>
+      <c r="CA26" s="120"/>
+      <c r="CB26" s="120"/>
+      <c r="CC26" s="120"/>
+      <c r="CD26" s="120"/>
+      <c r="CE26" s="120"/>
+      <c r="CF26" s="120"/>
+      <c r="CG26" s="120"/>
+      <c r="CH26" s="120"/>
+      <c r="CI26" s="120"/>
+      <c r="CJ26" s="120"/>
+      <c r="CK26" s="120"/>
+      <c r="CL26" s="120"/>
+      <c r="CM26" s="120"/>
+      <c r="CN26" s="120"/>
+      <c r="CO26" s="120"/>
+      <c r="CP26" s="120"/>
+      <c r="CQ26" s="120"/>
+      <c r="CR26" s="120"/>
+      <c r="CS26" s="120"/>
+      <c r="CT26" s="120"/>
+      <c r="CU26" s="120"/>
+      <c r="CV26" s="120"/>
     </row>
     <row r="27" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A27" s="96" t="s">
@@ -21342,15 +21345,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:CV1"/>
-    <mergeCell ref="A2:CV2"/>
-    <mergeCell ref="A3:CV3"/>
-    <mergeCell ref="A4:CV4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:K6"/>
     <mergeCell ref="A25:CV25"/>
     <mergeCell ref="A26:CV26"/>
     <mergeCell ref="A7:A8"/>
@@ -21364,6 +21358,15 @@
     <mergeCell ref="A22:CV22"/>
     <mergeCell ref="A23:CV23"/>
     <mergeCell ref="A24:CV24"/>
+    <mergeCell ref="A1:CV1"/>
+    <mergeCell ref="A2:CV2"/>
+    <mergeCell ref="A3:CV3"/>
+    <mergeCell ref="A4:CV4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
